--- a/redemption/reducefat.xlsx
+++ b/redemption/reducefat.xlsx
@@ -933,7 +933,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2025,355 +2025,366 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>记录!$B$2:$B$116</c:f>
+              <c:f>记录!$B$2:$B$115</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="115"/>
+                <c:ptCount val="114"/>
                 <c:pt idx="0">
-                  <c:v>42772</c:v>
+                  <c:v>42773</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42773</c:v>
+                  <c:v>42774</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42774</c:v>
+                  <c:v>42775</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42775</c:v>
+                  <c:v>42776</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42776</c:v>
+                  <c:v>42777</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42777</c:v>
+                  <c:v>42778</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42778</c:v>
+                  <c:v>42779</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42779</c:v>
+                  <c:v>42780</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>42780</c:v>
+                  <c:v>42781</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42781</c:v>
+                  <c:v>42782</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>42782</c:v>
+                  <c:v>42783</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>42783</c:v>
+                  <c:v>42784</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>42784</c:v>
+                  <c:v>42785</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>42785</c:v>
+                  <c:v>42786</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>42786</c:v>
+                  <c:v>42787</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>42787</c:v>
+                  <c:v>42788</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>42788</c:v>
+                  <c:v>42789</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>42789</c:v>
+                  <c:v>42790</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>42790</c:v>
+                  <c:v>42791</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>42791</c:v>
+                  <c:v>42792</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>42792</c:v>
+                  <c:v>42793</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>42793</c:v>
+                  <c:v>42794</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>42794</c:v>
+                  <c:v>42795</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>42795</c:v>
+                  <c:v>42796</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>42796</c:v>
+                  <c:v>42797</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>42797</c:v>
+                  <c:v>42798</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>42798</c:v>
+                  <c:v>42799</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>42799</c:v>
+                  <c:v>42800</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>42800</c:v>
+                  <c:v>42801</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>42801</c:v>
+                  <c:v>42802</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>42802</c:v>
+                  <c:v>42803</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>42803</c:v>
+                  <c:v>42804</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>42804</c:v>
+                  <c:v>42805</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>42805</c:v>
+                  <c:v>42806</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>42806</c:v>
+                  <c:v>42807</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>42807</c:v>
+                  <c:v>42808</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>42808</c:v>
+                  <c:v>42809</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>42809</c:v>
+                  <c:v>42810</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>42810</c:v>
+                  <c:v>42811</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>42811</c:v>
+                  <c:v>42812</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>42812</c:v>
+                  <c:v>42813</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>42813</c:v>
+                  <c:v>42814</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>42814</c:v>
+                  <c:v>42815</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>42815</c:v>
+                  <c:v>42816</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>42816</c:v>
+                  <c:v>42817</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>42817</c:v>
+                  <c:v>42818</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>42818</c:v>
+                  <c:v>42819</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>42819</c:v>
+                  <c:v>42820</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>42820</c:v>
+                  <c:v>42821</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>42821</c:v>
+                  <c:v>42822</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>42822</c:v>
+                  <c:v>42823</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>42823</c:v>
+                  <c:v>42824</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>42824</c:v>
+                  <c:v>42825</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>42825</c:v>
+                  <c:v>42826</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>42826</c:v>
+                  <c:v>42827</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>42827</c:v>
+                  <c:v>42828</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>42828</c:v>
+                  <c:v>42829</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>42829</c:v>
+                  <c:v>42830</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>42830</c:v>
+                  <c:v>42831</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>42831</c:v>
+                  <c:v>42832</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>42832</c:v>
+                  <c:v>42833</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>42833</c:v>
+                  <c:v>42834</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>42834</c:v>
+                  <c:v>42835</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>42835</c:v>
+                  <c:v>42836</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>42836</c:v>
+                  <c:v>42837</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>42837</c:v>
+                  <c:v>42838</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>42838</c:v>
+                  <c:v>42839</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>42839</c:v>
+                  <c:v>42840</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>42840</c:v>
+                  <c:v>42841</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>42841</c:v>
+                  <c:v>42842</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>42842</c:v>
+                  <c:v>42843</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>42843</c:v>
+                  <c:v>42844</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>42844</c:v>
+                  <c:v>42845</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>42845</c:v>
+                  <c:v>42846</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>42846</c:v>
+                  <c:v>42847</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>42847</c:v>
+                  <c:v>42848</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>42848</c:v>
+                  <c:v>42849</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>42849</c:v>
+                  <c:v>42850</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>42850</c:v>
+                  <c:v>42851</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>42851</c:v>
+                  <c:v>42852</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>42852</c:v>
+                  <c:v>42853</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>42853</c:v>
+                  <c:v>42854</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>42854</c:v>
+                  <c:v>42855</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>42855</c:v>
+                  <c:v>42856</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>42856</c:v>
+                  <c:v>42857</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>42857</c:v>
+                  <c:v>42858</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>42858</c:v>
+                  <c:v>42859</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>42859</c:v>
+                  <c:v>42860</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>42860</c:v>
+                  <c:v>42861</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>42861</c:v>
+                  <c:v>42862</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>42862</c:v>
+                  <c:v>42863</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>42863</c:v>
+                  <c:v>42864</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>42864</c:v>
+                  <c:v>42865</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>42865</c:v>
+                  <c:v>42866</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>42866</c:v>
+                  <c:v>42867</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>42867</c:v>
+                  <c:v>42868</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>42868</c:v>
+                  <c:v>42869</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>42869</c:v>
+                  <c:v>42870</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>42870</c:v>
+                  <c:v>42871</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>42871</c:v>
+                  <c:v>42872</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>42872</c:v>
+                  <c:v>42873</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>42873</c:v>
+                  <c:v>42874</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>42874</c:v>
+                  <c:v>42875</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>42875</c:v>
+                  <c:v>42876</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>42876</c:v>
+                  <c:v>42877</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>42877</c:v>
+                  <c:v>42878</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>42878</c:v>
+                  <c:v>42879</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>42879</c:v>
+                  <c:v>42880</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>42880</c:v>
+                  <c:v>42881</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>42881</c:v>
+                  <c:v>42882</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>42882</c:v>
+                  <c:v>42883</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>42883</c:v>
+                  <c:v>42884</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>42884</c:v>
+                  <c:v>42885</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>42885</c:v>
-                </c:pt>
-                <c:pt idx="114">
                   <c:v>42886</c:v>
                 </c:pt>
               </c:numCache>
@@ -2381,41 +2392,38 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>记录!$C$2:$C$116</c:f>
+              <c:f>记录!$C$2:$C$115</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="115"/>
+                <c:ptCount val="114"/>
                 <c:pt idx="0">
-                  <c:v>66.400000000000006</c:v>
+                  <c:v>67.599999999999994</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>67.599999999999994</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>67.599999999999994</c:v>
+                  <c:v>67.400000000000006</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>67.400000000000006</c:v>
+                  <c:v>67.3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>67.3</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>68</c:v>
+                  <c:v>68.8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>68.8</c:v>
+                  <c:v>68.900000000000006</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>68.900000000000006</c:v>
+                  <c:v>67.099999999999994</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>67.099999999999994</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>67.099999999999994</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>66.900000000000006</c:v>
                 </c:pt>
               </c:numCache>
@@ -2454,355 +2462,366 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>记录!$B$2:$B$116</c:f>
+              <c:f>记录!$B$2:$B$115</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="115"/>
+                <c:ptCount val="114"/>
                 <c:pt idx="0">
-                  <c:v>42772</c:v>
+                  <c:v>42773</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42773</c:v>
+                  <c:v>42774</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42774</c:v>
+                  <c:v>42775</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42775</c:v>
+                  <c:v>42776</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42776</c:v>
+                  <c:v>42777</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42777</c:v>
+                  <c:v>42778</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42778</c:v>
+                  <c:v>42779</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42779</c:v>
+                  <c:v>42780</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>42780</c:v>
+                  <c:v>42781</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42781</c:v>
+                  <c:v>42782</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>42782</c:v>
+                  <c:v>42783</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>42783</c:v>
+                  <c:v>42784</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>42784</c:v>
+                  <c:v>42785</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>42785</c:v>
+                  <c:v>42786</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>42786</c:v>
+                  <c:v>42787</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>42787</c:v>
+                  <c:v>42788</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>42788</c:v>
+                  <c:v>42789</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>42789</c:v>
+                  <c:v>42790</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>42790</c:v>
+                  <c:v>42791</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>42791</c:v>
+                  <c:v>42792</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>42792</c:v>
+                  <c:v>42793</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>42793</c:v>
+                  <c:v>42794</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>42794</c:v>
+                  <c:v>42795</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>42795</c:v>
+                  <c:v>42796</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>42796</c:v>
+                  <c:v>42797</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>42797</c:v>
+                  <c:v>42798</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>42798</c:v>
+                  <c:v>42799</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>42799</c:v>
+                  <c:v>42800</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>42800</c:v>
+                  <c:v>42801</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>42801</c:v>
+                  <c:v>42802</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>42802</c:v>
+                  <c:v>42803</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>42803</c:v>
+                  <c:v>42804</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>42804</c:v>
+                  <c:v>42805</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>42805</c:v>
+                  <c:v>42806</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>42806</c:v>
+                  <c:v>42807</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>42807</c:v>
+                  <c:v>42808</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>42808</c:v>
+                  <c:v>42809</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>42809</c:v>
+                  <c:v>42810</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>42810</c:v>
+                  <c:v>42811</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>42811</c:v>
+                  <c:v>42812</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>42812</c:v>
+                  <c:v>42813</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>42813</c:v>
+                  <c:v>42814</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>42814</c:v>
+                  <c:v>42815</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>42815</c:v>
+                  <c:v>42816</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>42816</c:v>
+                  <c:v>42817</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>42817</c:v>
+                  <c:v>42818</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>42818</c:v>
+                  <c:v>42819</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>42819</c:v>
+                  <c:v>42820</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>42820</c:v>
+                  <c:v>42821</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>42821</c:v>
+                  <c:v>42822</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>42822</c:v>
+                  <c:v>42823</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>42823</c:v>
+                  <c:v>42824</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>42824</c:v>
+                  <c:v>42825</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>42825</c:v>
+                  <c:v>42826</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>42826</c:v>
+                  <c:v>42827</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>42827</c:v>
+                  <c:v>42828</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>42828</c:v>
+                  <c:v>42829</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>42829</c:v>
+                  <c:v>42830</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>42830</c:v>
+                  <c:v>42831</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>42831</c:v>
+                  <c:v>42832</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>42832</c:v>
+                  <c:v>42833</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>42833</c:v>
+                  <c:v>42834</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>42834</c:v>
+                  <c:v>42835</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>42835</c:v>
+                  <c:v>42836</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>42836</c:v>
+                  <c:v>42837</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>42837</c:v>
+                  <c:v>42838</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>42838</c:v>
+                  <c:v>42839</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>42839</c:v>
+                  <c:v>42840</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>42840</c:v>
+                  <c:v>42841</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>42841</c:v>
+                  <c:v>42842</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>42842</c:v>
+                  <c:v>42843</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>42843</c:v>
+                  <c:v>42844</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>42844</c:v>
+                  <c:v>42845</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>42845</c:v>
+                  <c:v>42846</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>42846</c:v>
+                  <c:v>42847</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>42847</c:v>
+                  <c:v>42848</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>42848</c:v>
+                  <c:v>42849</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>42849</c:v>
+                  <c:v>42850</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>42850</c:v>
+                  <c:v>42851</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>42851</c:v>
+                  <c:v>42852</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>42852</c:v>
+                  <c:v>42853</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>42853</c:v>
+                  <c:v>42854</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>42854</c:v>
+                  <c:v>42855</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>42855</c:v>
+                  <c:v>42856</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>42856</c:v>
+                  <c:v>42857</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>42857</c:v>
+                  <c:v>42858</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>42858</c:v>
+                  <c:v>42859</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>42859</c:v>
+                  <c:v>42860</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>42860</c:v>
+                  <c:v>42861</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>42861</c:v>
+                  <c:v>42862</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>42862</c:v>
+                  <c:v>42863</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>42863</c:v>
+                  <c:v>42864</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>42864</c:v>
+                  <c:v>42865</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>42865</c:v>
+                  <c:v>42866</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>42866</c:v>
+                  <c:v>42867</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>42867</c:v>
+                  <c:v>42868</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>42868</c:v>
+                  <c:v>42869</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>42869</c:v>
+                  <c:v>42870</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>42870</c:v>
+                  <c:v>42871</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>42871</c:v>
+                  <c:v>42872</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>42872</c:v>
+                  <c:v>42873</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>42873</c:v>
+                  <c:v>42874</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>42874</c:v>
+                  <c:v>42875</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>42875</c:v>
+                  <c:v>42876</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>42876</c:v>
+                  <c:v>42877</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>42877</c:v>
+                  <c:v>42878</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>42878</c:v>
+                  <c:v>42879</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>42879</c:v>
+                  <c:v>42880</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>42880</c:v>
+                  <c:v>42881</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>42881</c:v>
+                  <c:v>42882</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>42882</c:v>
+                  <c:v>42883</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>42883</c:v>
+                  <c:v>42884</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>42884</c:v>
+                  <c:v>42885</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>42885</c:v>
-                </c:pt>
-                <c:pt idx="114">
                   <c:v>42886</c:v>
                 </c:pt>
               </c:numCache>
@@ -2810,10 +2829,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>记录!$D$2:$D$116</c:f>
+              <c:f>记录!$D$2:$D$115</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="115"/>
+                <c:ptCount val="114"/>
                 <c:pt idx="0">
                   <c:v>78</c:v>
                 </c:pt>
@@ -2839,12 +2858,9 @@
                   <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>78</c:v>
+                  <c:v>77.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>77.5</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>77</c:v>
                 </c:pt>
               </c:numCache>
@@ -4474,8 +4490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="W38" sqref="W38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W14" sqref="W14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4491,7 +4507,7 @@
   <dimension ref="B1:E115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5677,10 +5693,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D116"/>
+  <dimension ref="B1:D115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5701,10 +5717,10 @@
     </row>
     <row r="2" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B2" s="2">
-        <v>42772</v>
+        <v>42773</v>
       </c>
       <c r="C2" s="1">
-        <v>66.400000000000006</v>
+        <v>67.599999999999994</v>
       </c>
       <c r="D2" s="1">
         <v>78</v>
@@ -5712,7 +5728,7 @@
     </row>
     <row r="3" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B3" s="2">
-        <v>42773</v>
+        <v>42774</v>
       </c>
       <c r="C3" s="1">
         <v>67.599999999999994</v>
@@ -5723,10 +5739,10 @@
     </row>
     <row r="4" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
-        <v>42774</v>
+        <v>42775</v>
       </c>
       <c r="C4" s="1">
-        <v>67.599999999999994</v>
+        <v>67.400000000000006</v>
       </c>
       <c r="D4" s="1">
         <v>78</v>
@@ -5734,10 +5750,10 @@
     </row>
     <row r="5" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B5" s="2">
-        <v>42775</v>
+        <v>42776</v>
       </c>
       <c r="C5" s="1">
-        <v>67.400000000000006</v>
+        <v>67.3</v>
       </c>
       <c r="D5" s="1">
         <v>78</v>
@@ -5745,10 +5761,10 @@
     </row>
     <row r="6" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B6" s="2">
-        <v>42776</v>
+        <v>42777</v>
       </c>
       <c r="C6" s="1">
-        <v>67.3</v>
+        <v>68</v>
       </c>
       <c r="D6" s="1">
         <v>78</v>
@@ -5756,10 +5772,10 @@
     </row>
     <row r="7" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B7" s="2">
-        <v>42777</v>
+        <v>42778</v>
       </c>
       <c r="C7" s="1">
-        <v>68</v>
+        <v>68.8</v>
       </c>
       <c r="D7" s="1">
         <v>78</v>
@@ -5767,10 +5783,10 @@
     </row>
     <row r="8" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B8" s="2">
-        <v>42778</v>
+        <v>42779</v>
       </c>
       <c r="C8" s="1">
-        <v>68.8</v>
+        <v>68.900000000000006</v>
       </c>
       <c r="D8" s="1">
         <v>78</v>
@@ -5778,10 +5794,10 @@
     </row>
     <row r="9" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B9" s="2">
-        <v>42779</v>
+        <v>42780</v>
       </c>
       <c r="C9" s="1">
-        <v>68.900000000000006</v>
+        <v>67.099999999999994</v>
       </c>
       <c r="D9" s="1">
         <v>78</v>
@@ -5789,764 +5805,753 @@
     </row>
     <row r="10" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B10" s="2">
-        <v>42780</v>
+        <v>42781</v>
       </c>
       <c r="C10" s="1">
         <v>67.099999999999994</v>
       </c>
       <c r="D10" s="1">
-        <v>78</v>
+        <v>77.5</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B11" s="2">
-        <v>42781</v>
+        <v>42782</v>
       </c>
       <c r="C11" s="1">
-        <v>67.099999999999994</v>
+        <v>66.900000000000006</v>
       </c>
       <c r="D11" s="1">
-        <v>77.5</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B12" s="2">
-        <v>42782</v>
-      </c>
-      <c r="C12" s="1">
-        <v>66.900000000000006</v>
-      </c>
-      <c r="D12" s="1">
-        <v>77</v>
-      </c>
+        <v>42783</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
     </row>
     <row r="13" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B13" s="2">
-        <v>42783</v>
+        <v>42784</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B14" s="2">
-        <v>42784</v>
+        <v>42785</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B15" s="2">
-        <v>42785</v>
+        <v>42786</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B16" s="2">
-        <v>42786</v>
+        <v>42787</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
     <row r="17" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B17" s="2">
-        <v>42787</v>
+        <v>42788</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B18" s="2">
-        <v>42788</v>
+        <v>42789</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B19" s="2">
-        <v>42789</v>
+        <v>42790</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>
     <row r="20" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B20" s="2">
-        <v>42790</v>
+        <v>42791</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
     </row>
     <row r="21" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B21" s="2">
-        <v>42791</v>
+        <v>42792</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
     </row>
     <row r="22" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B22" s="2">
-        <v>42792</v>
+        <v>42793</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
     </row>
     <row r="23" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B23" s="2">
-        <v>42793</v>
+        <v>42794</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
     </row>
     <row r="24" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B24" s="2">
-        <v>42794</v>
+        <v>42795</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
     </row>
     <row r="25" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B25" s="2">
-        <v>42795</v>
+        <v>42796</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
     </row>
     <row r="26" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B26" s="2">
-        <v>42796</v>
+        <v>42797</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
     </row>
     <row r="27" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B27" s="2">
-        <v>42797</v>
+        <v>42798</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
     </row>
     <row r="28" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B28" s="2">
-        <v>42798</v>
+        <v>42799</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
     </row>
     <row r="29" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B29" s="2">
-        <v>42799</v>
+        <v>42800</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
     </row>
     <row r="30" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B30" s="2">
-        <v>42800</v>
+        <v>42801</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
     </row>
     <row r="31" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B31" s="2">
-        <v>42801</v>
+        <v>42802</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
     </row>
     <row r="32" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B32" s="2">
-        <v>42802</v>
+        <v>42803</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
     </row>
     <row r="33" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B33" s="2">
-        <v>42803</v>
+        <v>42804</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
     </row>
     <row r="34" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B34" s="2">
-        <v>42804</v>
+        <v>42805</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
     </row>
     <row r="35" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B35" s="2">
-        <v>42805</v>
+        <v>42806</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
     </row>
     <row r="36" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B36" s="2">
-        <v>42806</v>
+        <v>42807</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
     </row>
     <row r="37" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B37" s="2">
-        <v>42807</v>
+        <v>42808</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
     </row>
     <row r="38" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B38" s="2">
-        <v>42808</v>
+        <v>42809</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
     </row>
     <row r="39" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B39" s="2">
-        <v>42809</v>
+        <v>42810</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
     </row>
     <row r="40" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B40" s="2">
-        <v>42810</v>
+        <v>42811</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
     </row>
     <row r="41" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B41" s="2">
-        <v>42811</v>
+        <v>42812</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
     </row>
     <row r="42" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B42" s="2">
-        <v>42812</v>
+        <v>42813</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
     </row>
     <row r="43" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B43" s="2">
-        <v>42813</v>
+        <v>42814</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
     </row>
     <row r="44" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B44" s="2">
-        <v>42814</v>
+        <v>42815</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
     </row>
     <row r="45" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B45" s="2">
-        <v>42815</v>
+        <v>42816</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
     </row>
     <row r="46" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B46" s="2">
-        <v>42816</v>
+        <v>42817</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
     </row>
     <row r="47" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B47" s="2">
-        <v>42817</v>
+        <v>42818</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
     </row>
     <row r="48" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B48" s="2">
-        <v>42818</v>
+        <v>42819</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
     </row>
     <row r="49" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B49" s="2">
-        <v>42819</v>
+        <v>42820</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
     </row>
     <row r="50" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B50" s="2">
-        <v>42820</v>
+        <v>42821</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
     </row>
     <row r="51" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B51" s="2">
-        <v>42821</v>
+        <v>42822</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
     </row>
     <row r="52" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B52" s="2">
-        <v>42822</v>
+        <v>42823</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
     </row>
     <row r="53" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B53" s="2">
-        <v>42823</v>
+        <v>42824</v>
       </c>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
     </row>
     <row r="54" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B54" s="2">
-        <v>42824</v>
+        <v>42825</v>
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
     </row>
     <row r="55" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B55" s="2">
-        <v>42825</v>
+        <v>42826</v>
       </c>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
     </row>
     <row r="56" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B56" s="2">
-        <v>42826</v>
+        <v>42827</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
     </row>
     <row r="57" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B57" s="2">
-        <v>42827</v>
+        <v>42828</v>
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
     </row>
     <row r="58" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B58" s="2">
-        <v>42828</v>
+        <v>42829</v>
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
     </row>
     <row r="59" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B59" s="2">
-        <v>42829</v>
+        <v>42830</v>
       </c>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
     </row>
     <row r="60" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B60" s="2">
-        <v>42830</v>
+        <v>42831</v>
       </c>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
     </row>
     <row r="61" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B61" s="2">
-        <v>42831</v>
+        <v>42832</v>
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
     </row>
     <row r="62" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B62" s="2">
-        <v>42832</v>
+        <v>42833</v>
       </c>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
     </row>
     <row r="63" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B63" s="2">
-        <v>42833</v>
+        <v>42834</v>
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
     </row>
     <row r="64" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B64" s="2">
-        <v>42834</v>
+        <v>42835</v>
       </c>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
     </row>
     <row r="65" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B65" s="2">
-        <v>42835</v>
+        <v>42836</v>
       </c>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
     </row>
     <row r="66" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B66" s="2">
-        <v>42836</v>
+        <v>42837</v>
       </c>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
     </row>
     <row r="67" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B67" s="2">
-        <v>42837</v>
+        <v>42838</v>
       </c>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
     </row>
     <row r="68" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B68" s="2">
-        <v>42838</v>
+        <v>42839</v>
       </c>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
     </row>
     <row r="69" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B69" s="2">
-        <v>42839</v>
+        <v>42840</v>
       </c>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
     </row>
     <row r="70" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B70" s="2">
-        <v>42840</v>
+        <v>42841</v>
       </c>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
     </row>
     <row r="71" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B71" s="2">
-        <v>42841</v>
+        <v>42842</v>
       </c>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
     </row>
     <row r="72" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B72" s="2">
-        <v>42842</v>
+        <v>42843</v>
       </c>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
     </row>
     <row r="73" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B73" s="2">
-        <v>42843</v>
+        <v>42844</v>
       </c>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
     </row>
     <row r="74" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B74" s="2">
-        <v>42844</v>
+        <v>42845</v>
       </c>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
     </row>
     <row r="75" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B75" s="2">
-        <v>42845</v>
+        <v>42846</v>
       </c>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
     </row>
     <row r="76" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B76" s="2">
-        <v>42846</v>
+        <v>42847</v>
       </c>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
     </row>
     <row r="77" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B77" s="2">
-        <v>42847</v>
+        <v>42848</v>
       </c>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
     </row>
     <row r="78" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B78" s="2">
-        <v>42848</v>
+        <v>42849</v>
       </c>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
     </row>
     <row r="79" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B79" s="2">
-        <v>42849</v>
+        <v>42850</v>
       </c>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
     </row>
     <row r="80" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B80" s="2">
-        <v>42850</v>
+        <v>42851</v>
       </c>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
     </row>
     <row r="81" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B81" s="2">
-        <v>42851</v>
+        <v>42852</v>
       </c>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
     </row>
     <row r="82" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B82" s="2">
-        <v>42852</v>
+        <v>42853</v>
       </c>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
     </row>
     <row r="83" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B83" s="2">
-        <v>42853</v>
+        <v>42854</v>
       </c>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
     </row>
     <row r="84" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B84" s="2">
-        <v>42854</v>
+        <v>42855</v>
       </c>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
     </row>
     <row r="85" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B85" s="2">
-        <v>42855</v>
+        <v>42856</v>
       </c>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
     </row>
     <row r="86" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B86" s="2">
-        <v>42856</v>
+        <v>42857</v>
       </c>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
     </row>
     <row r="87" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B87" s="2">
-        <v>42857</v>
+        <v>42858</v>
       </c>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
     </row>
     <row r="88" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B88" s="2">
-        <v>42858</v>
+        <v>42859</v>
       </c>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
     </row>
     <row r="89" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B89" s="2">
-        <v>42859</v>
+        <v>42860</v>
       </c>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
     </row>
     <row r="90" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B90" s="2">
-        <v>42860</v>
+        <v>42861</v>
       </c>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
     </row>
     <row r="91" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B91" s="2">
-        <v>42861</v>
+        <v>42862</v>
       </c>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
     </row>
     <row r="92" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B92" s="2">
-        <v>42862</v>
+        <v>42863</v>
       </c>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
     </row>
     <row r="93" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B93" s="2">
-        <v>42863</v>
+        <v>42864</v>
       </c>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
     </row>
     <row r="94" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B94" s="2">
-        <v>42864</v>
+        <v>42865</v>
       </c>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
     </row>
     <row r="95" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B95" s="2">
-        <v>42865</v>
+        <v>42866</v>
       </c>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
     </row>
     <row r="96" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B96" s="2">
-        <v>42866</v>
+        <v>42867</v>
       </c>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
     </row>
     <row r="97" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B97" s="2">
-        <v>42867</v>
+        <v>42868</v>
       </c>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
     </row>
     <row r="98" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B98" s="2">
-        <v>42868</v>
+        <v>42869</v>
       </c>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
     </row>
     <row r="99" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B99" s="2">
-        <v>42869</v>
+        <v>42870</v>
       </c>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
     </row>
     <row r="100" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B100" s="2">
-        <v>42870</v>
+        <v>42871</v>
       </c>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
     </row>
     <row r="101" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B101" s="2">
-        <v>42871</v>
+        <v>42872</v>
       </c>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
     </row>
     <row r="102" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B102" s="2">
-        <v>42872</v>
+        <v>42873</v>
       </c>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
     </row>
     <row r="103" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B103" s="2">
-        <v>42873</v>
+        <v>42874</v>
       </c>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
     </row>
     <row r="104" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B104" s="2">
-        <v>42874</v>
+        <v>42875</v>
       </c>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
     </row>
     <row r="105" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B105" s="2">
-        <v>42875</v>
+        <v>42876</v>
       </c>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
     </row>
     <row r="106" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B106" s="2">
-        <v>42876</v>
+        <v>42877</v>
       </c>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
     </row>
     <row r="107" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B107" s="2">
-        <v>42877</v>
+        <v>42878</v>
       </c>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
     </row>
     <row r="108" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B108" s="2">
-        <v>42878</v>
+        <v>42879</v>
       </c>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
     </row>
     <row r="109" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B109" s="2">
-        <v>42879</v>
+        <v>42880</v>
       </c>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
     </row>
     <row r="110" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B110" s="2">
-        <v>42880</v>
+        <v>42881</v>
       </c>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
     </row>
     <row r="111" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B111" s="2">
-        <v>42881</v>
+        <v>42882</v>
       </c>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
     </row>
     <row r="112" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B112" s="2">
-        <v>42882</v>
+        <v>42883</v>
       </c>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
     </row>
     <row r="113" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B113" s="2">
-        <v>42883</v>
+        <v>42884</v>
       </c>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
     </row>
     <row r="114" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B114" s="2">
-        <v>42884</v>
+        <v>42885</v>
       </c>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
     </row>
     <row r="115" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B115" s="2">
-        <v>42885</v>
+        <v>42886</v>
       </c>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
-    </row>
-    <row r="116" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B116" s="2">
-        <v>42886</v>
-      </c>
-      <c r="C116" s="1"/>
-      <c r="D116" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/redemption/reducefat.xlsx
+++ b/redemption/reducefat.xlsx
@@ -1324,9 +1324,12 @@
                   <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>93</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>90</c:v>
                 </c:pt>
               </c:numCache>
@@ -1783,6 +1786,9 @@
                       </c:pt>
                       <c:pt idx="9">
                         <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2426,6 +2432,9 @@
                 <c:pt idx="9">
                   <c:v>66.900000000000006</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>66.8</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2861,6 +2870,9 @@
                   <c:v>77.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>77</c:v>
                 </c:pt>
               </c:numCache>
@@ -4507,7 +4519,7 @@
   <dimension ref="B1:E115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4649,7 +4661,7 @@
         <v>93</v>
       </c>
       <c r="D10" s="1">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
@@ -4663,7 +4675,7 @@
         <v>92</v>
       </c>
       <c r="D11" s="1">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E11" s="1">
         <v>2</v>
@@ -4676,8 +4688,12 @@
       <c r="C12" s="1">
         <v>91</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="D12" s="1">
+        <v>90</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B13" s="2">
@@ -5688,6 +5704,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5696,7 +5713,7 @@
   <dimension ref="B1:D115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5829,8 +5846,12 @@
       <c r="B12" s="2">
         <v>42783</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="C12" s="1">
+        <v>66.8</v>
+      </c>
+      <c r="D12" s="1">
+        <v>77</v>
+      </c>
     </row>
     <row r="13" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B13" s="2">

--- a/redemption/reducefat.xlsx
+++ b/redemption/reducefat.xlsx
@@ -1332,6 +1332,15 @@
                 <c:pt idx="10">
                   <c:v>90</c:v>
                 </c:pt>
+                <c:pt idx="11">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>92</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1789,6 +1798,15 @@
                       </c:pt>
                       <c:pt idx="10">
                         <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>-11</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>0</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2435,6 +2453,15 @@
                 <c:pt idx="10">
                   <c:v>66.8</c:v>
                 </c:pt>
+                <c:pt idx="11">
+                  <c:v>65.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>67</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2873,6 +2900,15 @@
                   <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>77</c:v>
                 </c:pt>
               </c:numCache>
@@ -4519,7 +4555,7 @@
   <dimension ref="B1:E115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4702,8 +4738,12 @@
       <c r="C13" s="1">
         <v>90</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="D13" s="1">
+        <v>81</v>
+      </c>
+      <c r="E13" s="1">
+        <v>9</v>
+      </c>
     </row>
     <row r="14" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B14" s="2">
@@ -4712,8 +4752,12 @@
       <c r="C14" s="1">
         <v>89</v>
       </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="D14" s="1">
+        <v>92</v>
+      </c>
+      <c r="E14" s="1">
+        <v>-11</v>
+      </c>
     </row>
     <row r="15" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B15" s="2">
@@ -4722,8 +4766,12 @@
       <c r="C15" s="1">
         <v>88</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="D15" s="1">
+        <v>92</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B16" s="2">
@@ -5713,7 +5761,7 @@
   <dimension ref="B1:D115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5857,22 +5905,34 @@
       <c r="B13" s="2">
         <v>42784</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="C13" s="1">
+        <v>65.900000000000006</v>
+      </c>
+      <c r="D13" s="1">
+        <v>77</v>
+      </c>
     </row>
     <row r="14" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B14" s="2">
         <v>42785</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="C14" s="1">
+        <v>67</v>
+      </c>
+      <c r="D14" s="1">
+        <v>77</v>
+      </c>
     </row>
     <row r="15" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B15" s="2">
         <v>42786</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="C15" s="1">
+        <v>67</v>
+      </c>
+      <c r="D15" s="1">
+        <v>77</v>
+      </c>
     </row>
     <row r="16" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B16" s="2">

--- a/redemption/reducefat.xlsx
+++ b/redemption/reducefat.xlsx
@@ -1341,6 +1341,9 @@
                 <c:pt idx="13">
                   <c:v>92</c:v>
                 </c:pt>
+                <c:pt idx="14">
+                  <c:v>87</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1807,6 +1810,9 @@
                       </c:pt>
                       <c:pt idx="13">
                         <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>5</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2461,6 +2467,9 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>66.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4555,7 +4564,7 @@
   <dimension ref="B1:E115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4780,8 +4789,12 @@
       <c r="C16" s="1">
         <v>87</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="D16" s="1">
+        <v>87</v>
+      </c>
+      <c r="E16" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="17" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B17" s="2">
@@ -5761,7 +5774,7 @@
   <dimension ref="B1:D115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5938,7 +5951,9 @@
       <c r="B16" s="2">
         <v>42787</v>
       </c>
-      <c r="C16" s="1"/>
+      <c r="C16" s="1">
+        <v>66.5</v>
+      </c>
       <c r="D16" s="1"/>
     </row>
     <row r="17" spans="2:4" ht="18" x14ac:dyDescent="0.2">
@@ -6637,5 +6652,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/redemption/reducefat.xlsx
+++ b/redemption/reducefat.xlsx
@@ -1344,6 +1344,12 @@
                 <c:pt idx="14">
                   <c:v>87</c:v>
                 </c:pt>
+                <c:pt idx="15">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>80</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1813,6 +1819,12 @@
                       </c:pt>
                       <c:pt idx="14">
                         <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>3</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2471,6 +2483,12 @@
                 <c:pt idx="14">
                   <c:v>66.5</c:v>
                 </c:pt>
+                <c:pt idx="15">
+                  <c:v>66.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>65.8</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2919,6 +2937,15 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>76</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2996,6 +3023,7 @@
         <c:axId val="597272424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="57.5"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4215,10 +4243,10 @@
       <xdr:rowOff>171451</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>171451</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4246,15 +4274,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>28574</xdr:colOff>
+      <xdr:colOff>28573</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>161924</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4548,7 +4576,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W14" sqref="W14"/>
+      <selection activeCell="Y18" sqref="Y18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4564,7 +4592,7 @@
   <dimension ref="B1:E115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4803,8 +4831,12 @@
       <c r="C17" s="1">
         <v>86</v>
       </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+      <c r="D17" s="1">
+        <v>83</v>
+      </c>
+      <c r="E17" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="18" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B18" s="2">
@@ -4813,8 +4845,12 @@
       <c r="C18" s="1">
         <v>85</v>
       </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+      <c r="D18" s="1">
+        <v>80</v>
+      </c>
+      <c r="E18" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="19" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B19" s="2">
@@ -5774,7 +5810,7 @@
   <dimension ref="B1:D115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5954,21 +5990,31 @@
       <c r="C16" s="1">
         <v>66.5</v>
       </c>
-      <c r="D16" s="1"/>
+      <c r="D16" s="1">
+        <v>77</v>
+      </c>
     </row>
     <row r="17" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B17" s="2">
         <v>42788</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+      <c r="C17" s="1">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="D17" s="1">
+        <v>77</v>
+      </c>
     </row>
     <row r="18" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B18" s="2">
         <v>42789</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
+      <c r="C18" s="1">
+        <v>65.8</v>
+      </c>
+      <c r="D18" s="1">
+        <v>76</v>
+      </c>
     </row>
     <row r="19" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B19" s="2">

--- a/redemption/reducefat.xlsx
+++ b/redemption/reducefat.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="图示" sheetId="3" r:id="rId1"/>
@@ -1350,6 +1350,9 @@
                 <c:pt idx="16">
                   <c:v>80</c:v>
                 </c:pt>
+                <c:pt idx="17">
+                  <c:v>83</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1825,6 +1828,9 @@
                       </c:pt>
                       <c:pt idx="16">
                         <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>-3</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2489,6 +2495,9 @@
                 <c:pt idx="16">
                   <c:v>65.8</c:v>
                 </c:pt>
+                <c:pt idx="17">
+                  <c:v>66.099999999999994</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2945,6 +2954,9 @@
                   <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>76</c:v>
                 </c:pt>
               </c:numCache>
@@ -4575,7 +4587,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="Y18" sqref="Y18"/>
     </sheetView>
   </sheetViews>
@@ -4591,8 +4603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E115"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4859,8 +4871,12 @@
       <c r="C19" s="1">
         <v>84</v>
       </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+      <c r="D19" s="1">
+        <v>83</v>
+      </c>
+      <c r="E19" s="1">
+        <v>-3</v>
+      </c>
     </row>
     <row r="20" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B20" s="2">
@@ -5810,7 +5826,7 @@
   <dimension ref="B1:D115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6020,8 +6036,12 @@
       <c r="B19" s="2">
         <v>42790</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="C19" s="1">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="D19" s="1">
+        <v>76</v>
+      </c>
     </row>
     <row r="20" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B20" s="2">

--- a/redemption/reducefat.xlsx
+++ b/redemption/reducefat.xlsx
@@ -1353,6 +1353,12 @@
                 <c:pt idx="17">
                   <c:v>83</c:v>
                 </c:pt>
+                <c:pt idx="18">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>76</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1831,6 +1837,12 @@
                       </c:pt>
                       <c:pt idx="17">
                         <c:v>-3</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>5</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2498,6 +2510,12 @@
                 <c:pt idx="17">
                   <c:v>66.099999999999994</c:v>
                 </c:pt>
+                <c:pt idx="18">
+                  <c:v>65.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>65.400000000000006</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2957,6 +2975,12 @@
                   <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>76</c:v>
                 </c:pt>
               </c:numCache>
@@ -4587,7 +4611,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="Y18" sqref="Y18"/>
     </sheetView>
   </sheetViews>
@@ -4604,7 +4628,7 @@
   <dimension ref="B1:E115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4885,8 +4909,12 @@
       <c r="C20" s="1">
         <v>83</v>
       </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
+      <c r="D20" s="1">
+        <v>81</v>
+      </c>
+      <c r="E20" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="21" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B21" s="2">
@@ -4895,8 +4923,12 @@
       <c r="C21" s="1">
         <v>82</v>
       </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
+      <c r="D21" s="1">
+        <v>76</v>
+      </c>
+      <c r="E21" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="22" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B22" s="2">
@@ -5826,7 +5858,7 @@
   <dimension ref="B1:D115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6047,15 +6079,23 @@
       <c r="B20" s="2">
         <v>42791</v>
       </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
+      <c r="C20" s="1">
+        <v>65.900000000000006</v>
+      </c>
+      <c r="D20" s="1">
+        <v>76</v>
+      </c>
     </row>
     <row r="21" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B21" s="2">
         <v>42792</v>
       </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
+      <c r="C21" s="1">
+        <v>65.400000000000006</v>
+      </c>
+      <c r="D21" s="1">
+        <v>76</v>
+      </c>
     </row>
     <row r="22" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B22" s="2">

--- a/redemption/reducefat.xlsx
+++ b/redemption/reducefat.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="图示" sheetId="3" r:id="rId1"/>
@@ -1359,6 +1359,18 @@
                 <c:pt idx="19">
                   <c:v>76</c:v>
                 </c:pt>
+                <c:pt idx="20">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>75</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1843,6 +1855,18 @@
                       </c:pt>
                       <c:pt idx="19">
                         <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>-7</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>2</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2516,6 +2540,18 @@
                 <c:pt idx="19">
                   <c:v>65.400000000000006</c:v>
                 </c:pt>
+                <c:pt idx="20">
+                  <c:v>66.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>65.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>65.3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2981,6 +3017,18 @@
                   <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>76</c:v>
                 </c:pt>
               </c:numCache>
@@ -4611,7 +4659,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="Y18" sqref="Y18"/>
     </sheetView>
   </sheetViews>
@@ -4627,8 +4675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4937,8 +4985,12 @@
       <c r="C22" s="1">
         <v>81</v>
       </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
+      <c r="D22" s="1">
+        <v>83</v>
+      </c>
+      <c r="E22" s="1">
+        <v>-7</v>
+      </c>
     </row>
     <row r="23" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B23" s="2">
@@ -4947,8 +4999,12 @@
       <c r="C23" s="1">
         <v>80</v>
       </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
+      <c r="D23" s="1">
+        <v>82</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B24" s="2">
@@ -4957,8 +5013,12 @@
       <c r="C24" s="1">
         <v>79</v>
       </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
+      <c r="D24" s="1">
+        <v>77</v>
+      </c>
+      <c r="E24" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="25" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B25" s="2">
@@ -4967,8 +5027,12 @@
       <c r="C25" s="1">
         <v>78</v>
       </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
+      <c r="D25" s="1">
+        <v>75</v>
+      </c>
+      <c r="E25" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="26" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B26" s="2">
@@ -5857,8 +5921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D115"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6101,29 +6165,45 @@
       <c r="B22" s="2">
         <v>42793</v>
       </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
+      <c r="C22" s="1">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="D22" s="1">
+        <v>76</v>
+      </c>
     </row>
     <row r="23" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B23" s="2">
         <v>42794</v>
       </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
+      <c r="C23" s="1">
+        <v>66</v>
+      </c>
+      <c r="D23" s="1">
+        <v>76</v>
+      </c>
     </row>
     <row r="24" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B24" s="2">
         <v>42795</v>
       </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
+      <c r="C24" s="1">
+        <v>65.5</v>
+      </c>
+      <c r="D24" s="1">
+        <v>76</v>
+      </c>
     </row>
     <row r="25" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B25" s="2">
         <v>42796</v>
       </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
+      <c r="C25" s="1">
+        <v>65.3</v>
+      </c>
+      <c r="D25" s="1">
+        <v>76</v>
+      </c>
     </row>
     <row r="26" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B26" s="2">

--- a/redemption/reducefat.xlsx
+++ b/redemption/reducefat.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="图示" sheetId="3" r:id="rId1"/>
@@ -1371,6 +1371,30 @@
                 <c:pt idx="23">
                   <c:v>75</c:v>
                 </c:pt>
+                <c:pt idx="24">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>63</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1867,6 +1891,30 @@
                       </c:pt>
                       <c:pt idx="23">
                         <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>-5</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>-2</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2552,6 +2600,30 @@
                 <c:pt idx="23">
                   <c:v>65.3</c:v>
                 </c:pt>
+                <c:pt idx="24">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>65.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>64.2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>63.9</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>64.099999999999994</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3030,6 +3102,30 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>74</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4659,7 +4755,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Y18" sqref="Y18"/>
     </sheetView>
   </sheetViews>
@@ -4675,8 +4771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E115"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5041,8 +5137,12 @@
       <c r="C26" s="1">
         <v>77</v>
       </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
+      <c r="D26" s="1">
+        <v>72</v>
+      </c>
+      <c r="E26" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="27" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B27" s="2">
@@ -5051,8 +5151,12 @@
       <c r="C27" s="1">
         <v>76</v>
       </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
+      <c r="D27" s="1">
+        <v>72</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B28" s="2">
@@ -5061,8 +5165,12 @@
       <c r="C28" s="1">
         <v>75</v>
       </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
+      <c r="D28" s="1">
+        <v>72</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B29" s="2">
@@ -5071,8 +5179,12 @@
       <c r="C29" s="1">
         <v>74</v>
       </c>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
+      <c r="D29" s="1">
+        <v>77</v>
+      </c>
+      <c r="E29" s="1">
+        <v>-5</v>
+      </c>
     </row>
     <row r="30" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B30" s="2">
@@ -5081,8 +5193,12 @@
       <c r="C30" s="1">
         <v>73</v>
       </c>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
+      <c r="D30" s="1">
+        <v>64</v>
+      </c>
+      <c r="E30" s="1">
+        <v>13</v>
+      </c>
     </row>
     <row r="31" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B31" s="2">
@@ -5091,8 +5207,12 @@
       <c r="C31" s="1">
         <v>72</v>
       </c>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
+      <c r="D31" s="1">
+        <v>62</v>
+      </c>
+      <c r="E31" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="32" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B32" s="2">
@@ -5101,8 +5221,12 @@
       <c r="C32" s="1">
         <v>71</v>
       </c>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
+      <c r="D32" s="1">
+        <v>61</v>
+      </c>
+      <c r="E32" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="33" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B33" s="2">
@@ -5111,8 +5235,12 @@
       <c r="C33" s="1">
         <v>70</v>
       </c>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
+      <c r="D33" s="1">
+        <v>63</v>
+      </c>
+      <c r="E33" s="1">
+        <v>-2</v>
+      </c>
     </row>
     <row r="34" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B34" s="2">
@@ -5921,8 +6049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D115"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24:D25"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6209,57 +6337,89 @@
       <c r="B26" s="2">
         <v>42797</v>
       </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
+      <c r="C26" s="1">
+        <v>65</v>
+      </c>
+      <c r="D26" s="1">
+        <v>75</v>
+      </c>
     </row>
     <row r="27" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B27" s="2">
         <v>42798</v>
       </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
+      <c r="C27" s="1">
+        <v>65</v>
+      </c>
+      <c r="D27" s="1">
+        <v>75</v>
+      </c>
     </row>
     <row r="28" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B28" s="2">
         <v>42799</v>
       </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
+      <c r="C28" s="1">
+        <v>65</v>
+      </c>
+      <c r="D28" s="1">
+        <v>75</v>
+      </c>
     </row>
     <row r="29" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B29" s="2">
         <v>42800</v>
       </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
+      <c r="C29" s="1">
+        <v>65.5</v>
+      </c>
+      <c r="D29" s="1">
+        <v>75</v>
+      </c>
     </row>
     <row r="30" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B30" s="2">
         <v>42801</v>
       </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
+      <c r="C30" s="1">
+        <v>64.2</v>
+      </c>
+      <c r="D30" s="1">
+        <v>74</v>
+      </c>
     </row>
     <row r="31" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B31" s="2">
         <v>42802</v>
       </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
+      <c r="C31" s="1">
+        <v>64</v>
+      </c>
+      <c r="D31" s="1">
+        <v>74</v>
+      </c>
     </row>
     <row r="32" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B32" s="2">
         <v>42803</v>
       </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
+      <c r="C32" s="1">
+        <v>63.9</v>
+      </c>
+      <c r="D32" s="1">
+        <v>74</v>
+      </c>
     </row>
     <row r="33" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B33" s="2">
         <v>42804</v>
       </c>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
+      <c r="C33" s="1">
+        <v>64.099999999999994</v>
+      </c>
+      <c r="D33" s="1">
+        <v>74</v>
+      </c>
     </row>
     <row r="34" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B34" s="2">

--- a/redemption/reducefat.xlsx
+++ b/redemption/reducefat.xlsx
@@ -1309,91 +1309,103 @@
                   <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>97</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>104</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>112</c:v>
+                  <c:v>113</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>113</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>94</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>91</c:v>
-                </c:pt>
                 <c:pt idx="10">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>90</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>87</c:v>
-                </c:pt>
                 <c:pt idx="15">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>83</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>80</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>77</c:v>
-                </c:pt>
                 <c:pt idx="23">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>75</c:v>
                 </c:pt>
-                <c:pt idx="24">
-                  <c:v>72</c:v>
-                </c:pt>
                 <c:pt idx="25">
-                  <c:v>72</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>72</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>77</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="28">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>64</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="31">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>62</c:v>
                 </c:pt>
-                <c:pt idx="30">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>63</c:v>
+                <c:pt idx="33">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>65</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1915,6 +1927,18 @@
                       </c:pt>
                       <c:pt idx="31">
                         <c:v>-2</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>-14</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>9</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2624,6 +2648,18 @@
                 <c:pt idx="31">
                   <c:v>64.099999999999994</c:v>
                 </c:pt>
+                <c:pt idx="32">
+                  <c:v>63.7</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>63.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>64.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>64</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3125,6 +3161,18 @@
                   <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="31">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>74</c:v>
                 </c:pt>
               </c:numCache>
@@ -4771,13 +4819,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="14.75" customWidth="1"/>
+    <col min="4" max="4" width="11.875" customWidth="1"/>
+    <col min="5" max="5" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="18" x14ac:dyDescent="0.2">
@@ -4844,7 +4894,7 @@
         <v>98</v>
       </c>
       <c r="D5" s="1">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -4858,7 +4908,7 @@
         <v>97</v>
       </c>
       <c r="D6" s="1">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E6" s="1">
         <v>-7</v>
@@ -4872,7 +4922,7 @@
         <v>96</v>
       </c>
       <c r="D7" s="1">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E7" s="1">
         <v>-8</v>
@@ -4886,7 +4936,7 @@
         <v>95</v>
       </c>
       <c r="D8" s="1">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E8" s="1">
         <v>-1</v>
@@ -4900,7 +4950,7 @@
         <v>94</v>
       </c>
       <c r="D9" s="1">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E9" s="1">
         <v>18</v>
@@ -4914,7 +4964,7 @@
         <v>93</v>
       </c>
       <c r="D10" s="1">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
@@ -4928,7 +4978,7 @@
         <v>92</v>
       </c>
       <c r="D11" s="1">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E11" s="1">
         <v>2</v>
@@ -4942,7 +4992,7 @@
         <v>91</v>
       </c>
       <c r="D12" s="1">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
@@ -4956,7 +5006,7 @@
         <v>90</v>
       </c>
       <c r="D13" s="1">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E13" s="1">
         <v>9</v>
@@ -4970,7 +5020,7 @@
         <v>89</v>
       </c>
       <c r="D14" s="1">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E14" s="1">
         <v>-11</v>
@@ -4984,7 +5034,7 @@
         <v>88</v>
       </c>
       <c r="D15" s="1">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E15" s="1">
         <v>0</v>
@@ -4998,7 +5048,7 @@
         <v>87</v>
       </c>
       <c r="D16" s="1">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E16" s="1">
         <v>5</v>
@@ -5012,7 +5062,7 @@
         <v>86</v>
       </c>
       <c r="D17" s="1">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E17" s="1">
         <v>4</v>
@@ -5026,7 +5076,7 @@
         <v>85</v>
       </c>
       <c r="D18" s="1">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E18" s="1">
         <v>3</v>
@@ -5040,7 +5090,7 @@
         <v>84</v>
       </c>
       <c r="D19" s="1">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E19" s="1">
         <v>-3</v>
@@ -5054,7 +5104,7 @@
         <v>83</v>
       </c>
       <c r="D20" s="1">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E20" s="1">
         <v>2</v>
@@ -5068,7 +5118,7 @@
         <v>82</v>
       </c>
       <c r="D21" s="1">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E21" s="1">
         <v>5</v>
@@ -5082,7 +5132,7 @@
         <v>81</v>
       </c>
       <c r="D22" s="1">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E22" s="1">
         <v>-7</v>
@@ -5096,7 +5146,7 @@
         <v>80</v>
       </c>
       <c r="D23" s="1">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
@@ -5110,7 +5160,7 @@
         <v>79</v>
       </c>
       <c r="D24" s="1">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E24" s="1">
         <v>5</v>
@@ -5124,7 +5174,7 @@
         <v>78</v>
       </c>
       <c r="D25" s="1">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E25" s="1">
         <v>2</v>
@@ -5138,7 +5188,7 @@
         <v>77</v>
       </c>
       <c r="D26" s="1">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E26" s="1">
         <v>3</v>
@@ -5152,7 +5202,7 @@
         <v>76</v>
       </c>
       <c r="D27" s="1">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E27" s="1">
         <v>0</v>
@@ -5166,7 +5216,7 @@
         <v>75</v>
       </c>
       <c r="D28" s="1">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E28" s="1">
         <v>0</v>
@@ -5180,7 +5230,7 @@
         <v>74</v>
       </c>
       <c r="D29" s="1">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E29" s="1">
         <v>-5</v>
@@ -5194,7 +5244,7 @@
         <v>73</v>
       </c>
       <c r="D30" s="1">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E30" s="1">
         <v>13</v>
@@ -5208,7 +5258,7 @@
         <v>72</v>
       </c>
       <c r="D31" s="1">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E31" s="1">
         <v>2</v>
@@ -5222,7 +5272,7 @@
         <v>71</v>
       </c>
       <c r="D32" s="1">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E32" s="1">
         <v>1</v>
@@ -5236,7 +5286,7 @@
         <v>70</v>
       </c>
       <c r="D33" s="1">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E33" s="1">
         <v>-2</v>
@@ -5249,8 +5299,12 @@
       <c r="C34" s="1">
         <v>69</v>
       </c>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
+      <c r="D34" s="1">
+        <v>62</v>
+      </c>
+      <c r="E34" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="35" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B35" s="2">
@@ -5259,8 +5313,12 @@
       <c r="C35" s="1">
         <v>68</v>
       </c>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
+      <c r="D35" s="1">
+        <v>60</v>
+      </c>
+      <c r="E35" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="36" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B36" s="2">
@@ -5269,8 +5327,12 @@
       <c r="C36" s="1">
         <v>67</v>
       </c>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
+      <c r="D36" s="1">
+        <v>74</v>
+      </c>
+      <c r="E36" s="1">
+        <v>-14</v>
+      </c>
     </row>
     <row r="37" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B37" s="2">
@@ -5279,8 +5341,12 @@
       <c r="C37" s="1">
         <v>66</v>
       </c>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
+      <c r="D37" s="1">
+        <v>65</v>
+      </c>
+      <c r="E37" s="1">
+        <v>9</v>
+      </c>
     </row>
     <row r="38" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B38" s="2">
@@ -6050,7 +6116,7 @@
   <dimension ref="B1:D115"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="C2" sqref="C2:D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6425,29 +6491,45 @@
       <c r="B34" s="2">
         <v>42805</v>
       </c>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
+      <c r="C34" s="1">
+        <v>63.7</v>
+      </c>
+      <c r="D34" s="1">
+        <v>74</v>
+      </c>
     </row>
     <row r="35" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B35" s="2">
         <v>42806</v>
       </c>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
+      <c r="C35" s="1">
+        <v>63.5</v>
+      </c>
+      <c r="D35" s="1">
+        <v>74</v>
+      </c>
     </row>
     <row r="36" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B36" s="2">
         <v>42807</v>
       </c>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
+      <c r="C36" s="1">
+        <v>64.900000000000006</v>
+      </c>
+      <c r="D36" s="1">
+        <v>74</v>
+      </c>
     </row>
     <row r="37" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B37" s="2">
         <v>42808</v>
       </c>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
+      <c r="C37" s="1">
+        <v>64</v>
+      </c>
+      <c r="D37" s="1">
+        <v>74</v>
+      </c>
     </row>
     <row r="38" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B38" s="2">

--- a/redemption/reducefat.xlsx
+++ b/redemption/reducefat.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="图示" sheetId="3" r:id="rId1"/>
     <sheet name="进度统计" sheetId="1" r:id="rId2"/>
     <sheet name="记录" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1407,6 +1407,45 @@
                 <c:pt idx="35">
                   <c:v>65</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>61</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1939,6 +1978,45 @@
                       </c:pt>
                       <c:pt idx="35">
                         <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>-1</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>-4</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>-1</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>-5</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>-4</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>-6</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2660,6 +2738,45 @@
                 <c:pt idx="35">
                   <c:v>64</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>63.5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>63.3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>63.4</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>63.1</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>63.5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>63.6</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>63.3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>62.9</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>62.5</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>62.6</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>63.6</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3174,6 +3291,45 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>73</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3349,6 +3505,2047 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>减脂曲线燃烧图</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>进度统计!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>计划值</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>进度统计!$B$2:$B$115</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="114"/>
+                <c:pt idx="0">
+                  <c:v>42773</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42774</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42775</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42776</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42777</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42778</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42779</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42780</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42781</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42782</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42783</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42784</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42785</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42786</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42787</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42788</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42789</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42790</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42791</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42792</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42793</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42794</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42795</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>42796</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>42797</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>42798</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>42799</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>42800</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>42801</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>42802</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>42803</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>42804</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>42805</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>42806</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>42807</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>42808</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>42809</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>42810</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>42811</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>42812</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>42813</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42814</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42815</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>42816</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>42817</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>42818</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>42819</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>42820</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>42821</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>42822</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>42823</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>42824</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>42825</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>42826</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>42827</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>42828</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>42829</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>42830</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>42831</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>42832</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>42833</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>42834</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>42835</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>42836</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>42837</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>42838</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>42839</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>42840</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>42841</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>42842</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>42843</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>42844</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>42845</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>42846</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>42847</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>42848</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>42849</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>42850</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>42851</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>42852</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>42853</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>42854</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>42855</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>42856</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>42857</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>42858</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>42859</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>42860</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>42861</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>42862</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>42863</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>42864</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>42865</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>42866</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>42867</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>42868</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>42869</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>42870</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>42871</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>42872</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>42873</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>42874</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>42875</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>42876</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>42877</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>42878</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>42879</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>42880</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>42881</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>42882</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>42883</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>42884</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>42885</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>42886</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>进度统计!$C$2:$C$115</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="114"/>
+                <c:pt idx="0">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DA4B-4F90-8485-E6500AE9772C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>进度统计!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>实际值</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>进度统计!$B$2:$B$115</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="114"/>
+                <c:pt idx="0">
+                  <c:v>42773</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42774</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42775</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42776</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42777</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42778</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42779</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42780</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42781</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42782</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42783</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42784</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42785</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42786</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42787</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42788</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42789</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42790</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42791</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42792</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42793</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42794</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42795</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>42796</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>42797</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>42798</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>42799</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>42800</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>42801</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>42802</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>42803</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>42804</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>42805</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>42806</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>42807</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>42808</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>42809</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>42810</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>42811</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>42812</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>42813</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42814</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42815</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>42816</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>42817</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>42818</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>42819</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>42820</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>42821</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>42822</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>42823</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>42824</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>42825</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>42826</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>42827</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>42828</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>42829</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>42830</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>42831</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>42832</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>42833</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>42834</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>42835</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>42836</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>42837</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>42838</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>42839</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>42840</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>42841</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>42842</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>42843</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>42844</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>42845</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>42846</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>42847</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>42848</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>42849</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>42850</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>42851</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>42852</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>42853</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>42854</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>42855</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>42856</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>42857</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>42858</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>42859</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>42860</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>42861</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>42862</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>42863</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>42864</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>42865</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>42866</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>42867</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>42868</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>42869</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>42870</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>42871</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>42872</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>42873</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>42874</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>42875</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>42876</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>42877</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>42878</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>42879</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>42880</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>42881</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>42882</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>42883</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>42884</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>42885</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>42886</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>进度统计!$D$2:$D$115</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="114"/>
+                <c:pt idx="0">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>61</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DA4B-4F90-8485-E6500AE9772C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="385299672"/>
+        <c:axId val="385300328"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>进度统计!$E$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>完成值</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>进度统计!$B$2:$B$115</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>m/d/yyyy</c:formatCode>
+                      <c:ptCount val="114"/>
+                      <c:pt idx="0">
+                        <c:v>42773</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>42774</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>42775</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>42776</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>42777</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>42778</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>42779</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>42780</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>42781</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>42782</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>42783</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>42784</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>42785</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>42786</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>42787</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>42788</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>42789</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>42790</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>42791</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>42792</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>42793</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>42794</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>42795</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>42796</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>42797</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>42798</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>42799</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>42800</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>42801</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>42802</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>42803</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>42804</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>42805</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>42806</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>42807</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>42808</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>42809</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>42810</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>42811</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>42812</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>42813</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>42814</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>42815</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>42816</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>42817</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>42818</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>42819</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>42820</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>42821</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>42822</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>42823</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>42824</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>42825</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>42826</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>42827</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>42828</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>42829</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>42830</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>42831</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>42832</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>42833</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>42834</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>42835</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>42836</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>42837</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>42838</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>42839</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>42840</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>42841</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>42842</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>42843</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>42844</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>42845</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>42846</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>42847</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>42848</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>42849</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>42850</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>42851</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>42852</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>42853</c:v>
+                      </c:pt>
+                      <c:pt idx="81">
+                        <c:v>42854</c:v>
+                      </c:pt>
+                      <c:pt idx="82">
+                        <c:v>42855</c:v>
+                      </c:pt>
+                      <c:pt idx="83">
+                        <c:v>42856</c:v>
+                      </c:pt>
+                      <c:pt idx="84">
+                        <c:v>42857</c:v>
+                      </c:pt>
+                      <c:pt idx="85">
+                        <c:v>42858</c:v>
+                      </c:pt>
+                      <c:pt idx="86">
+                        <c:v>42859</c:v>
+                      </c:pt>
+                      <c:pt idx="87">
+                        <c:v>42860</c:v>
+                      </c:pt>
+                      <c:pt idx="88">
+                        <c:v>42861</c:v>
+                      </c:pt>
+                      <c:pt idx="89">
+                        <c:v>42862</c:v>
+                      </c:pt>
+                      <c:pt idx="90">
+                        <c:v>42863</c:v>
+                      </c:pt>
+                      <c:pt idx="91">
+                        <c:v>42864</c:v>
+                      </c:pt>
+                      <c:pt idx="92">
+                        <c:v>42865</c:v>
+                      </c:pt>
+                      <c:pt idx="93">
+                        <c:v>42866</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>42867</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>42868</c:v>
+                      </c:pt>
+                      <c:pt idx="96">
+                        <c:v>42869</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
+                        <c:v>42870</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>42871</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>42872</c:v>
+                      </c:pt>
+                      <c:pt idx="100">
+                        <c:v>42873</c:v>
+                      </c:pt>
+                      <c:pt idx="101">
+                        <c:v>42874</c:v>
+                      </c:pt>
+                      <c:pt idx="102">
+                        <c:v>42875</c:v>
+                      </c:pt>
+                      <c:pt idx="103">
+                        <c:v>42876</c:v>
+                      </c:pt>
+                      <c:pt idx="104">
+                        <c:v>42877</c:v>
+                      </c:pt>
+                      <c:pt idx="105">
+                        <c:v>42878</c:v>
+                      </c:pt>
+                      <c:pt idx="106">
+                        <c:v>42879</c:v>
+                      </c:pt>
+                      <c:pt idx="107">
+                        <c:v>42880</c:v>
+                      </c:pt>
+                      <c:pt idx="108">
+                        <c:v>42881</c:v>
+                      </c:pt>
+                      <c:pt idx="109">
+                        <c:v>42882</c:v>
+                      </c:pt>
+                      <c:pt idx="110">
+                        <c:v>42883</c:v>
+                      </c:pt>
+                      <c:pt idx="111">
+                        <c:v>42884</c:v>
+                      </c:pt>
+                      <c:pt idx="112">
+                        <c:v>42885</c:v>
+                      </c:pt>
+                      <c:pt idx="113">
+                        <c:v>42886</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>进度统计!$E$2:$E$115</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="114"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>-7</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>-8</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>-1</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>-11</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>-3</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>-7</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>-5</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>-2</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>-14</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>-1</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>-4</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>-1</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>-5</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>-4</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>-6</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-DA4B-4F90-8485-E6500AE9772C}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="385299672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="385300328"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="385300328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="385299672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3390,6 +5587,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4461,6 +6698,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -4530,6 +7283,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="图表 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FE1D09A-6193-4647-83DA-3AF9F3927F58}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4804,7 +7593,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Y18" sqref="Y18"/>
+      <selection activeCell="Z25" sqref="Z25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4819,8 +7608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5355,8 +8144,12 @@
       <c r="C38" s="1">
         <v>65</v>
       </c>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
+      <c r="D38" s="1">
+        <v>60</v>
+      </c>
+      <c r="E38" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="39" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B39" s="2">
@@ -5365,8 +8158,12 @@
       <c r="C39" s="1">
         <v>64</v>
       </c>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
+      <c r="D39" s="1">
+        <v>58</v>
+      </c>
+      <c r="E39" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="40" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B40" s="2">
@@ -5375,8 +8172,12 @@
       <c r="C40" s="1">
         <v>63</v>
       </c>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
+      <c r="D40" s="1">
+        <v>59</v>
+      </c>
+      <c r="E40" s="1">
+        <v>-1</v>
+      </c>
     </row>
     <row r="41" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B41" s="2">
@@ -5385,8 +8186,12 @@
       <c r="C41" s="1">
         <v>62</v>
       </c>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
+      <c r="D41" s="1">
+        <v>56</v>
+      </c>
+      <c r="E41" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="42" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B42" s="2">
@@ -5395,8 +8200,12 @@
       <c r="C42" s="1">
         <v>61</v>
       </c>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
+      <c r="D42" s="1">
+        <v>60</v>
+      </c>
+      <c r="E42" s="1">
+        <v>-4</v>
+      </c>
     </row>
     <row r="43" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B43" s="2">
@@ -5405,8 +8214,12 @@
       <c r="C43" s="1">
         <v>60</v>
       </c>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
+      <c r="D43" s="1">
+        <v>61</v>
+      </c>
+      <c r="E43" s="1">
+        <v>-1</v>
+      </c>
     </row>
     <row r="44" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B44" s="2">
@@ -5415,8 +8228,12 @@
       <c r="C44" s="1">
         <v>59</v>
       </c>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
+      <c r="D44" s="1">
+        <v>58</v>
+      </c>
+      <c r="E44" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="45" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B45" s="2">
@@ -5425,8 +8242,12 @@
       <c r="C45" s="1">
         <v>58</v>
       </c>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
+      <c r="D45" s="1">
+        <v>54</v>
+      </c>
+      <c r="E45" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="46" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B46" s="2">
@@ -5435,8 +8256,12 @@
       <c r="C46" s="1">
         <v>57</v>
       </c>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
+      <c r="D46" s="1">
+        <v>50</v>
+      </c>
+      <c r="E46" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="47" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B47" s="2">
@@ -5445,8 +8270,12 @@
       <c r="C47" s="1">
         <v>56</v>
       </c>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
+      <c r="D47" s="1">
+        <v>55</v>
+      </c>
+      <c r="E47" s="1">
+        <v>-5</v>
+      </c>
     </row>
     <row r="48" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B48" s="2">
@@ -5455,8 +8284,12 @@
       <c r="C48" s="1">
         <v>55</v>
       </c>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
+      <c r="D48" s="1">
+        <v>51</v>
+      </c>
+      <c r="E48" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="49" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B49" s="2">
@@ -5465,8 +8298,12 @@
       <c r="C49" s="1">
         <v>54</v>
       </c>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
+      <c r="D49" s="1">
+        <v>55</v>
+      </c>
+      <c r="E49" s="1">
+        <v>-4</v>
+      </c>
     </row>
     <row r="50" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B50" s="2">
@@ -5475,8 +8312,12 @@
       <c r="C50" s="1">
         <v>53</v>
       </c>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
+      <c r="D50" s="1">
+        <v>61</v>
+      </c>
+      <c r="E50" s="1">
+        <v>-6</v>
+      </c>
     </row>
     <row r="51" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B51" s="2">
@@ -6115,8 +8956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D115"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D37"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6535,92 +9376,144 @@
       <c r="B38" s="2">
         <v>42809</v>
       </c>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
+      <c r="C38" s="1">
+        <v>63.5</v>
+      </c>
+      <c r="D38" s="1">
+        <v>74</v>
+      </c>
     </row>
     <row r="39" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B39" s="2">
         <v>42810</v>
       </c>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
+      <c r="C39" s="1">
+        <v>63.3</v>
+      </c>
+      <c r="D39" s="1">
+        <v>73</v>
+      </c>
     </row>
     <row r="40" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B40" s="2">
         <v>42811</v>
       </c>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
+      <c r="C40" s="1">
+        <v>63.4</v>
+      </c>
+      <c r="D40" s="1">
+        <v>73</v>
+      </c>
     </row>
     <row r="41" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B41" s="2">
         <v>42812</v>
       </c>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
+      <c r="C41" s="1">
+        <v>63.1</v>
+      </c>
+      <c r="D41" s="1">
+        <v>73</v>
+      </c>
     </row>
     <row r="42" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B42" s="2">
         <v>42813</v>
       </c>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
+      <c r="C42" s="1">
+        <v>63.5</v>
+      </c>
+      <c r="D42" s="1">
+        <v>73</v>
+      </c>
     </row>
     <row r="43" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B43" s="2">
         <v>42814</v>
       </c>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
+      <c r="C43" s="1">
+        <v>63.6</v>
+      </c>
+      <c r="D43" s="1">
+        <v>73</v>
+      </c>
     </row>
     <row r="44" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B44" s="2">
         <v>42815</v>
       </c>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
+      <c r="C44" s="1">
+        <v>63.3</v>
+      </c>
+      <c r="D44" s="1">
+        <v>73</v>
+      </c>
     </row>
     <row r="45" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B45" s="2">
         <v>42816</v>
       </c>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
+      <c r="C45" s="1">
+        <v>62.9</v>
+      </c>
+      <c r="D45" s="1">
+        <v>73</v>
+      </c>
     </row>
     <row r="46" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B46" s="2">
         <v>42817</v>
       </c>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
+      <c r="C46" s="1">
+        <v>62.5</v>
+      </c>
+      <c r="D46" s="1">
+        <v>73</v>
+      </c>
     </row>
     <row r="47" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B47" s="2">
         <v>42818</v>
       </c>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
+      <c r="C47" s="1">
+        <v>63</v>
+      </c>
+      <c r="D47" s="1">
+        <v>73</v>
+      </c>
     </row>
     <row r="48" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B48" s="2">
         <v>42819</v>
       </c>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
+      <c r="C48" s="1">
+        <v>62.6</v>
+      </c>
+      <c r="D48" s="1">
+        <v>73</v>
+      </c>
     </row>
     <row r="49" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B49" s="2">
         <v>42820</v>
       </c>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
+      <c r="C49" s="1">
+        <v>63</v>
+      </c>
+      <c r="D49" s="1">
+        <v>73</v>
+      </c>
     </row>
     <row r="50" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B50" s="2">
         <v>42821</v>
       </c>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
+      <c r="C50" s="1">
+        <v>63.6</v>
+      </c>
+      <c r="D50" s="1">
+        <v>73</v>
+      </c>
     </row>
     <row r="51" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B51" s="2">

--- a/redemption/reducefat.xlsx
+++ b/redemption/reducefat.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="图示" sheetId="3" r:id="rId1"/>
@@ -1446,6 +1446,30 @@
                 <c:pt idx="48">
                   <c:v>61</c:v>
                 </c:pt>
+                <c:pt idx="49">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>61</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2017,6 +2041,30 @@
                       </c:pt>
                       <c:pt idx="48">
                         <c:v>-6</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>-11</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>-4</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2777,6 +2825,30 @@
                 <c:pt idx="48">
                   <c:v>63.6</c:v>
                 </c:pt>
+                <c:pt idx="49">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>62.6</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>62.5</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>62.2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>61.9</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>61.9</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>63.4</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3330,6 +3402,30 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>72</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4809,6 +4905,30 @@
                 <c:pt idx="48">
                   <c:v>61</c:v>
                 </c:pt>
+                <c:pt idx="49">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>61</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5380,6 +5500,30 @@
                       </c:pt>
                       <c:pt idx="48">
                         <c:v>-6</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>-11</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>-4</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -7592,7 +7736,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="Z25" sqref="Z25"/>
     </sheetView>
   </sheetViews>
@@ -7608,8 +7752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E115"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H47" sqref="H47"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="I55" sqref="I55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8326,8 +8470,12 @@
       <c r="C51" s="1">
         <v>52</v>
       </c>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
+      <c r="D51" s="1">
+        <v>57</v>
+      </c>
+      <c r="E51" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="52" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B52" s="2">
@@ -8336,8 +8484,12 @@
       <c r="C52" s="1">
         <v>51</v>
       </c>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
+      <c r="D52" s="1">
+        <v>53</v>
+      </c>
+      <c r="E52" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="53" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B53" s="2">
@@ -8346,8 +8498,12 @@
       <c r="C53" s="1">
         <v>50</v>
       </c>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
+      <c r="D53" s="1">
+        <v>52</v>
+      </c>
+      <c r="E53" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="54" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B54" s="2">
@@ -8356,8 +8512,12 @@
       <c r="C54" s="1">
         <v>49</v>
       </c>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
+      <c r="D54" s="1">
+        <v>49</v>
+      </c>
+      <c r="E54" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="55" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B55" s="2">
@@ -8366,8 +8526,12 @@
       <c r="C55" s="1">
         <v>48</v>
       </c>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
+      <c r="D55" s="1">
+        <v>46</v>
+      </c>
+      <c r="E55" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="56" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B56" s="2">
@@ -8376,8 +8540,12 @@
       <c r="C56" s="1">
         <v>47</v>
       </c>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
+      <c r="D56" s="1">
+        <v>46</v>
+      </c>
+      <c r="E56" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="57" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B57" s="2">
@@ -8386,8 +8554,12 @@
       <c r="C57" s="1">
         <v>46</v>
       </c>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
+      <c r="D57" s="1">
+        <v>57</v>
+      </c>
+      <c r="E57" s="1">
+        <v>-11</v>
+      </c>
     </row>
     <row r="58" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B58" s="2">
@@ -8396,8 +8568,12 @@
       <c r="C58" s="1">
         <v>45</v>
       </c>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
+      <c r="D58" s="1">
+        <v>61</v>
+      </c>
+      <c r="E58" s="1">
+        <v>-4</v>
+      </c>
     </row>
     <row r="59" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B59" s="2">
@@ -8956,8 +9132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="I45" sqref="I45"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9519,57 +9695,89 @@
       <c r="B51" s="2">
         <v>42822</v>
       </c>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
+      <c r="C51" s="1">
+        <v>63</v>
+      </c>
+      <c r="D51" s="1">
+        <v>73</v>
+      </c>
     </row>
     <row r="52" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B52" s="2">
         <v>42823</v>
       </c>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
+      <c r="C52" s="1">
+        <v>62.6</v>
+      </c>
+      <c r="D52" s="1">
+        <v>72</v>
+      </c>
     </row>
     <row r="53" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B53" s="2">
         <v>42824</v>
       </c>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
+      <c r="C53" s="1">
+        <v>62.5</v>
+      </c>
+      <c r="D53" s="1">
+        <v>72</v>
+      </c>
     </row>
     <row r="54" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B54" s="2">
         <v>42825</v>
       </c>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
+      <c r="C54" s="1">
+        <v>62.2</v>
+      </c>
+      <c r="D54" s="1">
+        <v>72</v>
+      </c>
     </row>
     <row r="55" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B55" s="2">
         <v>42826</v>
       </c>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
+      <c r="C55" s="1">
+        <v>61.9</v>
+      </c>
+      <c r="D55" s="1">
+        <v>72</v>
+      </c>
     </row>
     <row r="56" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B56" s="2">
         <v>42827</v>
       </c>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
+      <c r="C56" s="1">
+        <v>61.9</v>
+      </c>
+      <c r="D56" s="1">
+        <v>72</v>
+      </c>
     </row>
     <row r="57" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B57" s="2">
         <v>42828</v>
       </c>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
+      <c r="C57" s="1">
+        <v>63</v>
+      </c>
+      <c r="D57" s="1">
+        <v>72</v>
+      </c>
     </row>
     <row r="58" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B58" s="2">
         <v>42829</v>
       </c>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
+      <c r="C58" s="1">
+        <v>63.4</v>
+      </c>
+      <c r="D58" s="1">
+        <v>72</v>
+      </c>
     </row>
     <row r="59" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B59" s="2">

--- a/redemption/reducefat.xlsx
+++ b/redemption/reducefat.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="图示" sheetId="3" r:id="rId1"/>
@@ -1470,6 +1470,78 @@
                 <c:pt idx="56">
                   <c:v>61</c:v>
                 </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>46</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2065,6 +2137,78 @@
                       </c:pt>
                       <c:pt idx="56">
                         <c:v>-4</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>-3</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>-4</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>-1</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>-5</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>-11</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>-4</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>-5</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>2</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2849,6 +2993,78 @@
                 <c:pt idx="56">
                   <c:v>63.4</c:v>
                 </c:pt>
+                <c:pt idx="57">
+                  <c:v>63.1</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>62.7</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>62.7</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>63.4</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62.5</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>62.6</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>62.2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>61.9</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>61.9</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>62.4</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>62.4</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>62.4</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>63.5</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>63.2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>62.4</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>61.7</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>61.6</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>62.5</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>61.9</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>61.7</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>61.9</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3426,6 +3642,78 @@
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>71</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4929,6 +5217,78 @@
                 <c:pt idx="56">
                   <c:v>61</c:v>
                 </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>46</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5524,6 +5884,78 @@
                       </c:pt>
                       <c:pt idx="56">
                         <c:v>-4</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>-3</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>-4</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>-1</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>-5</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>-11</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>-4</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>-5</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>2</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -7736,7 +8168,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="Z25" sqref="Z25"/>
     </sheetView>
   </sheetViews>
@@ -7752,8 +8184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="I55" sqref="I55"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="I83" sqref="I83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8582,8 +9014,12 @@
       <c r="C59" s="1">
         <v>44</v>
       </c>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
+      <c r="D59" s="1">
+        <v>58</v>
+      </c>
+      <c r="E59" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="60" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B60" s="2">
@@ -8592,8 +9028,12 @@
       <c r="C60" s="1">
         <v>43</v>
       </c>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
+      <c r="D60" s="1">
+        <v>54</v>
+      </c>
+      <c r="E60" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="61" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B61" s="2">
@@ -8602,8 +9042,12 @@
       <c r="C61" s="1">
         <v>42</v>
       </c>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
+      <c r="D61" s="1">
+        <v>54</v>
+      </c>
+      <c r="E61" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="62" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B62" s="2">
@@ -8612,8 +9056,12 @@
       <c r="C62" s="1">
         <v>41</v>
       </c>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
+      <c r="D62" s="1">
+        <v>57</v>
+      </c>
+      <c r="E62" s="1">
+        <v>-3</v>
+      </c>
     </row>
     <row r="63" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B63" s="2">
@@ -8622,8 +9070,12 @@
       <c r="C63" s="1">
         <v>40</v>
       </c>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
+      <c r="D63" s="1">
+        <v>61</v>
+      </c>
+      <c r="E63" s="1">
+        <v>-4</v>
+      </c>
     </row>
     <row r="64" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B64" s="2">
@@ -8632,8 +9084,12 @@
       <c r="C64" s="1">
         <v>39</v>
       </c>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
+      <c r="D64" s="1">
+        <v>52</v>
+      </c>
+      <c r="E64" s="1">
+        <v>9</v>
+      </c>
     </row>
     <row r="65" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B65" s="2">
@@ -8642,8 +9098,12 @@
       <c r="C65" s="1">
         <v>38</v>
       </c>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
+      <c r="D65" s="1">
+        <v>53</v>
+      </c>
+      <c r="E65" s="1">
+        <v>-1</v>
+      </c>
     </row>
     <row r="66" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B66" s="2">
@@ -8652,8 +9112,12 @@
       <c r="C66" s="1">
         <v>37</v>
       </c>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
+      <c r="D66" s="1">
+        <v>49</v>
+      </c>
+      <c r="E66" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="67" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B67" s="2">
@@ -8662,8 +9126,12 @@
       <c r="C67" s="1">
         <v>36</v>
       </c>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
+      <c r="D67" s="1">
+        <v>46</v>
+      </c>
+      <c r="E67" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="68" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B68" s="2">
@@ -8672,8 +9140,12 @@
       <c r="C68" s="1">
         <v>35</v>
       </c>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
+      <c r="D68" s="1">
+        <v>46</v>
+      </c>
+      <c r="E68" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="69" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B69" s="2">
@@ -8682,8 +9154,12 @@
       <c r="C69" s="1">
         <v>34</v>
       </c>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
+      <c r="D69" s="1">
+        <v>51</v>
+      </c>
+      <c r="E69" s="1">
+        <v>-5</v>
+      </c>
     </row>
     <row r="70" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B70" s="2">
@@ -8692,8 +9168,12 @@
       <c r="C70" s="1">
         <v>33</v>
       </c>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
+      <c r="D70" s="1">
+        <v>51</v>
+      </c>
+      <c r="E70" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="71" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B71" s="2">
@@ -8702,8 +9182,12 @@
       <c r="C71" s="1">
         <v>32</v>
       </c>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
+      <c r="D71" s="1">
+        <v>51</v>
+      </c>
+      <c r="E71" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="72" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B72" s="2">
@@ -8712,8 +9196,12 @@
       <c r="C72" s="1">
         <v>31</v>
       </c>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
+      <c r="D72" s="1">
+        <v>62</v>
+      </c>
+      <c r="E72" s="1">
+        <v>-11</v>
+      </c>
     </row>
     <row r="73" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B73" s="2">
@@ -8722,8 +9210,12 @@
       <c r="C73" s="1">
         <v>30</v>
       </c>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
+      <c r="D73" s="1">
+        <v>59</v>
+      </c>
+      <c r="E73" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="74" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B74" s="2">
@@ -8732,8 +9224,12 @@
       <c r="C74" s="1">
         <v>29</v>
       </c>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
+      <c r="D74" s="1">
+        <v>51</v>
+      </c>
+      <c r="E74" s="1">
+        <v>8</v>
+      </c>
     </row>
     <row r="75" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B75" s="2">
@@ -8742,8 +9238,12 @@
       <c r="C75" s="1">
         <v>28</v>
       </c>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
+      <c r="D75" s="1">
+        <v>44</v>
+      </c>
+      <c r="E75" s="1">
+        <v>7</v>
+      </c>
     </row>
     <row r="76" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B76" s="2">
@@ -8752,8 +9252,12 @@
       <c r="C76" s="1">
         <v>27</v>
       </c>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
+      <c r="D76" s="1">
+        <v>43</v>
+      </c>
+      <c r="E76" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="77" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B77" s="2">
@@ -8762,8 +9266,12 @@
       <c r="C77" s="1">
         <v>26</v>
       </c>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
+      <c r="D77" s="1">
+        <v>47</v>
+      </c>
+      <c r="E77" s="1">
+        <v>-4</v>
+      </c>
     </row>
     <row r="78" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B78" s="2">
@@ -8772,8 +9280,12 @@
       <c r="C78" s="1">
         <v>25</v>
       </c>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
+      <c r="D78" s="1">
+        <v>52</v>
+      </c>
+      <c r="E78" s="1">
+        <v>-5</v>
+      </c>
     </row>
     <row r="79" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B79" s="2">
@@ -8782,8 +9294,12 @@
       <c r="C79" s="1">
         <v>24</v>
       </c>
-      <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
+      <c r="D79" s="1">
+        <v>47</v>
+      </c>
+      <c r="E79" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="80" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B80" s="2">
@@ -8792,8 +9308,12 @@
       <c r="C80" s="1">
         <v>23</v>
       </c>
-      <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
+      <c r="D80" s="1">
+        <v>46</v>
+      </c>
+      <c r="E80" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="81" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B81" s="2">
@@ -8802,8 +9322,12 @@
       <c r="C81" s="1">
         <v>22</v>
       </c>
-      <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
+      <c r="D81" s="1">
+        <v>44</v>
+      </c>
+      <c r="E81" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="82" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B82" s="2">
@@ -8812,8 +9336,12 @@
       <c r="C82" s="1">
         <v>21</v>
       </c>
-      <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
+      <c r="D82" s="1">
+        <v>46</v>
+      </c>
+      <c r="E82" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="83" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B83" s="2">
@@ -9132,8 +9660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D115"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="H75" sqref="H75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9783,169 +10311,265 @@
       <c r="B59" s="2">
         <v>42830</v>
       </c>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
+      <c r="C59" s="1">
+        <v>63.1</v>
+      </c>
+      <c r="D59" s="1">
+        <v>72</v>
+      </c>
     </row>
     <row r="60" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B60" s="2">
         <v>42831</v>
       </c>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
+      <c r="C60" s="1">
+        <v>62.7</v>
+      </c>
+      <c r="D60" s="1">
+        <v>72</v>
+      </c>
     </row>
     <row r="61" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B61" s="2">
         <v>42832</v>
       </c>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
+      <c r="C61" s="1">
+        <v>62.7</v>
+      </c>
+      <c r="D61" s="1">
+        <v>72</v>
+      </c>
     </row>
     <row r="62" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B62" s="2">
         <v>42833</v>
       </c>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
+      <c r="C62" s="1">
+        <v>63</v>
+      </c>
+      <c r="D62" s="1">
+        <v>72</v>
+      </c>
     </row>
     <row r="63" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B63" s="2">
         <v>42834</v>
       </c>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
+      <c r="C63" s="1">
+        <v>63.4</v>
+      </c>
+      <c r="D63" s="1">
+        <v>72</v>
+      </c>
     </row>
     <row r="64" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B64" s="2">
         <v>42835</v>
       </c>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
+      <c r="C64" s="1">
+        <v>62.5</v>
+      </c>
+      <c r="D64" s="1">
+        <v>72</v>
+      </c>
     </row>
     <row r="65" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B65" s="2">
         <v>42836</v>
       </c>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
+      <c r="C65" s="1">
+        <v>62.6</v>
+      </c>
+      <c r="D65" s="1">
+        <v>72</v>
+      </c>
     </row>
     <row r="66" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B66" s="2">
         <v>42837</v>
       </c>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
+      <c r="C66" s="1">
+        <v>62.2</v>
+      </c>
+      <c r="D66" s="1">
+        <v>72</v>
+      </c>
     </row>
     <row r="67" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B67" s="2">
         <v>42838</v>
       </c>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
+      <c r="C67" s="1">
+        <v>61.9</v>
+      </c>
+      <c r="D67" s="1">
+        <v>72</v>
+      </c>
     </row>
     <row r="68" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B68" s="2">
         <v>42839</v>
       </c>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
+      <c r="C68" s="1">
+        <v>61.9</v>
+      </c>
+      <c r="D68" s="1">
+        <v>72</v>
+      </c>
     </row>
     <row r="69" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B69" s="2">
         <v>42840</v>
       </c>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
+      <c r="C69" s="1">
+        <v>62.4</v>
+      </c>
+      <c r="D69" s="1">
+        <v>72</v>
+      </c>
     </row>
     <row r="70" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B70" s="2">
         <v>42841</v>
       </c>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
+      <c r="C70" s="1">
+        <v>62.4</v>
+      </c>
+      <c r="D70" s="1">
+        <v>72</v>
+      </c>
     </row>
     <row r="71" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B71" s="2">
         <v>42842</v>
       </c>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
+      <c r="C71" s="1">
+        <v>62.4</v>
+      </c>
+      <c r="D71" s="1">
+        <v>72</v>
+      </c>
     </row>
     <row r="72" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B72" s="2">
         <v>42843</v>
       </c>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
+      <c r="C72" s="1">
+        <v>63.5</v>
+      </c>
+      <c r="D72" s="1">
+        <v>71</v>
+      </c>
     </row>
     <row r="73" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B73" s="2">
         <v>42844</v>
       </c>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
+      <c r="C73" s="1">
+        <v>63.2</v>
+      </c>
+      <c r="D73" s="1">
+        <v>71</v>
+      </c>
     </row>
     <row r="74" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B74" s="2">
         <v>42845</v>
       </c>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
+      <c r="C74" s="1">
+        <v>62.4</v>
+      </c>
+      <c r="D74" s="1">
+        <v>71</v>
+      </c>
     </row>
     <row r="75" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B75" s="2">
         <v>42846</v>
       </c>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
+      <c r="C75" s="1">
+        <v>61.7</v>
+      </c>
+      <c r="D75" s="1">
+        <v>71</v>
+      </c>
     </row>
     <row r="76" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B76" s="2">
         <v>42847</v>
       </c>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
+      <c r="C76" s="1">
+        <v>61.6</v>
+      </c>
+      <c r="D76" s="1">
+        <v>71</v>
+      </c>
     </row>
     <row r="77" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B77" s="2">
         <v>42848</v>
       </c>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
+      <c r="C77" s="1">
+        <v>62</v>
+      </c>
+      <c r="D77" s="1">
+        <v>71</v>
+      </c>
     </row>
     <row r="78" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B78" s="2">
         <v>42849</v>
       </c>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
+      <c r="C78" s="1">
+        <v>62.5</v>
+      </c>
+      <c r="D78" s="1">
+        <v>71</v>
+      </c>
     </row>
     <row r="79" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B79" s="2">
         <v>42850</v>
       </c>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
+      <c r="C79" s="1">
+        <v>62</v>
+      </c>
+      <c r="D79" s="1">
+        <v>71</v>
+      </c>
     </row>
     <row r="80" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B80" s="2">
         <v>42851</v>
       </c>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
+      <c r="C80" s="1">
+        <v>61.9</v>
+      </c>
+      <c r="D80" s="1">
+        <v>71</v>
+      </c>
     </row>
     <row r="81" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B81" s="2">
         <v>42852</v>
       </c>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
+      <c r="C81" s="1">
+        <v>61.7</v>
+      </c>
+      <c r="D81" s="1">
+        <v>71</v>
+      </c>
     </row>
     <row r="82" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B82" s="2">
         <v>42853</v>
       </c>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
+      <c r="C82" s="1">
+        <v>61.9</v>
+      </c>
+      <c r="D82" s="1">
+        <v>71</v>
+      </c>
     </row>
     <row r="83" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B83" s="2">

--- a/redemption/reducefat.xlsx
+++ b/redemption/reducefat.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="图示" sheetId="3" r:id="rId1"/>
@@ -50,8 +50,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,6 +82,13 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -133,7 +140,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -148,6 +155,7 @@
     <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1394,6 +1402,12 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="118"/>
+                <c:pt idx="0">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>113</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1831,6 +1845,12 @@
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="118"/>
+                      <c:pt idx="0">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>9</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -2478,6 +2498,12 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="114"/>
+                <c:pt idx="0">
+                  <c:v>69.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>68.8</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4288,6 +4314,12 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="118"/>
+                <c:pt idx="0">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>113</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4725,6 +4757,12 @@
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="118"/>
+                      <c:pt idx="0">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>9</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -6933,14 +6971,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="Z19" sqref="Z19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="6"/>
+  </cols>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6949,11 +6990,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:E126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6984,8 +7025,12 @@
       <c r="C2" s="1">
         <v>125</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+      <c r="D2" s="1">
+        <v>122</v>
+      </c>
+      <c r="E2" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="3" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B3" s="2">
@@ -6994,8 +7039,12 @@
       <c r="C3" s="1">
         <v>124</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+      <c r="D3" s="1">
+        <v>113</v>
+      </c>
+      <c r="E3" s="1">
+        <v>9</v>
+      </c>
     </row>
     <row r="4" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
@@ -8235,11 +8284,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:D126"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="I122" sqref="I122"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8264,14 +8313,18 @@
       <c r="B2" s="5">
         <v>43017</v>
       </c>
-      <c r="C2" s="3"/>
+      <c r="C2" s="3">
+        <v>69.7</v>
+      </c>
       <c r="D2" s="3"/>
     </row>
     <row r="3" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B3" s="5">
         <v>43018</v>
       </c>
-      <c r="C3" s="3"/>
+      <c r="C3" s="3">
+        <v>68.8</v>
+      </c>
       <c r="D3" s="3"/>
     </row>
     <row r="4" spans="2:4" ht="18" x14ac:dyDescent="0.2">

--- a/redemption/reducefat.xlsx
+++ b/redemption/reducefat.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="图示" sheetId="3" r:id="rId1"/>
@@ -76,19 +76,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -148,14 +148,14 @@
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1408,6 +1408,9 @@
                 <c:pt idx="1">
                   <c:v>113</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>108</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1850,6 +1853,9 @@
                       </c:pt>
                       <c:pt idx="1">
                         <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>5</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2092,8 +2098,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="2.9820054111065742E-2"/>
-          <c:y val="7.1858061248434635E-2"/>
+          <c:x val="3.056162950824573E-2"/>
+          <c:y val="6.7901575908848974E-2"/>
           <c:w val="0.94183435623031952"/>
           <c:h val="0.84146606383201161"/>
         </c:manualLayout>
@@ -2503,6 +2509,9 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>68.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>68.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4320,6 +4329,9 @@
                 <c:pt idx="1">
                   <c:v>113</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>108</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4762,6 +4774,9 @@
                       </c:pt>
                       <c:pt idx="1">
                         <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>5</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -6974,13 +6989,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="Z19" sqref="Z19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9" style="6"/>
+    <col min="1" max="16384" width="9" style="3"/>
   </cols>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -6994,7 +7009,7 @@
   <dimension ref="B1:E126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7053,8 +7068,12 @@
       <c r="C4" s="1">
         <v>123</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="D4" s="1">
+        <v>108</v>
+      </c>
+      <c r="E4" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="5" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B5" s="2">
@@ -8287,906 +8306,908 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:D126"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9" style="4"/>
-    <col min="2" max="2" width="14.75" style="4" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="9" style="5"/>
+    <col min="2" max="2" width="14.75" style="5" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B2" s="5">
+      <c r="B2" s="6">
         <v>43017</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="4">
         <v>69.7</v>
       </c>
-      <c r="D2" s="3"/>
+      <c r="D2" s="4"/>
     </row>
     <row r="3" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B3" s="5">
+      <c r="B3" s="6">
         <v>43018</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="4">
         <v>68.8</v>
       </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="4"/>
     </row>
     <row r="4" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B4" s="5">
+      <c r="B4" s="6">
         <v>43019</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
+      <c r="C4" s="4">
+        <v>68.3</v>
+      </c>
+      <c r="D4" s="4"/>
     </row>
     <row r="5" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B5" s="5">
+      <c r="B5" s="6">
         <v>43020</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
     </row>
     <row r="6" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B6" s="5">
+      <c r="B6" s="6">
         <v>43021</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
     </row>
     <row r="7" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B7" s="5">
+      <c r="B7" s="6">
         <v>43022</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
     </row>
     <row r="8" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B8" s="5">
+      <c r="B8" s="6">
         <v>43023</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
     </row>
     <row r="9" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B9" s="5">
+      <c r="B9" s="6">
         <v>43024</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
     </row>
     <row r="10" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B10" s="5">
+      <c r="B10" s="6">
         <v>43025</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
     </row>
     <row r="11" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B11" s="5">
+      <c r="B11" s="6">
         <v>43026</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
     </row>
     <row r="12" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B12" s="5">
+      <c r="B12" s="6">
         <v>43027</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
     </row>
     <row r="13" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B13" s="5">
+      <c r="B13" s="6">
         <v>43028</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
     </row>
     <row r="14" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B14" s="5">
+      <c r="B14" s="6">
         <v>43029</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
     </row>
     <row r="15" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B15" s="5">
+      <c r="B15" s="6">
         <v>43030</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
     </row>
     <row r="16" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B16" s="5">
+      <c r="B16" s="6">
         <v>43031</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
     </row>
     <row r="17" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B17" s="5">
+      <c r="B17" s="6">
         <v>43032</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
     </row>
     <row r="18" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B18" s="5">
+      <c r="B18" s="6">
         <v>43033</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
     </row>
     <row r="19" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B19" s="5">
+      <c r="B19" s="6">
         <v>43034</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
     </row>
     <row r="20" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B20" s="5">
+      <c r="B20" s="6">
         <v>43035</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
     </row>
     <row r="21" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B21" s="5">
+      <c r="B21" s="6">
         <v>43036</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
     </row>
     <row r="22" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B22" s="5">
+      <c r="B22" s="6">
         <v>43037</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
     </row>
     <row r="23" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B23" s="5">
+      <c r="B23" s="6">
         <v>43038</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
     </row>
     <row r="24" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B24" s="5">
+      <c r="B24" s="6">
         <v>43039</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
     </row>
     <row r="25" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B25" s="5">
+      <c r="B25" s="6">
         <v>43040</v>
       </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
     </row>
     <row r="26" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B26" s="5">
+      <c r="B26" s="6">
         <v>43041</v>
       </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
     </row>
     <row r="27" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B27" s="5">
+      <c r="B27" s="6">
         <v>43042</v>
       </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
     </row>
     <row r="28" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B28" s="5">
+      <c r="B28" s="6">
         <v>43043</v>
       </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
     </row>
     <row r="29" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B29" s="5">
+      <c r="B29" s="6">
         <v>43044</v>
       </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
     </row>
     <row r="30" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B30" s="5">
+      <c r="B30" s="6">
         <v>43045</v>
       </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
     </row>
     <row r="31" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B31" s="5">
+      <c r="B31" s="6">
         <v>43046</v>
       </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
     </row>
     <row r="32" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B32" s="5">
+      <c r="B32" s="6">
         <v>43047</v>
       </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
     </row>
     <row r="33" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B33" s="5">
+      <c r="B33" s="6">
         <v>43048</v>
       </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
     </row>
     <row r="34" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B34" s="5">
+      <c r="B34" s="6">
         <v>43049</v>
       </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
     </row>
     <row r="35" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B35" s="5">
+      <c r="B35" s="6">
         <v>43050</v>
       </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
     </row>
     <row r="36" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B36" s="5">
+      <c r="B36" s="6">
         <v>43051</v>
       </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
     </row>
     <row r="37" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B37" s="5">
+      <c r="B37" s="6">
         <v>43052</v>
       </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
     </row>
     <row r="38" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B38" s="5">
+      <c r="B38" s="6">
         <v>43053</v>
       </c>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
     </row>
     <row r="39" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B39" s="5">
+      <c r="B39" s="6">
         <v>43054</v>
       </c>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
     </row>
     <row r="40" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B40" s="5">
+      <c r="B40" s="6">
         <v>43055</v>
       </c>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
     </row>
     <row r="41" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B41" s="5">
+      <c r="B41" s="6">
         <v>43056</v>
       </c>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
     </row>
     <row r="42" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B42" s="5">
+      <c r="B42" s="6">
         <v>43057</v>
       </c>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
     </row>
     <row r="43" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B43" s="5">
+      <c r="B43" s="6">
         <v>43058</v>
       </c>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
     </row>
     <row r="44" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B44" s="5">
+      <c r="B44" s="6">
         <v>43059</v>
       </c>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
     </row>
     <row r="45" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B45" s="5">
+      <c r="B45" s="6">
         <v>43060</v>
       </c>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
     </row>
     <row r="46" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B46" s="5">
+      <c r="B46" s="6">
         <v>43061</v>
       </c>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
     </row>
     <row r="47" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B47" s="5">
+      <c r="B47" s="6">
         <v>43062</v>
       </c>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
     </row>
     <row r="48" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B48" s="5">
+      <c r="B48" s="6">
         <v>43063</v>
       </c>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
     </row>
     <row r="49" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B49" s="5">
+      <c r="B49" s="6">
         <v>43064</v>
       </c>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
     </row>
     <row r="50" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B50" s="5">
+      <c r="B50" s="6">
         <v>43065</v>
       </c>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
     </row>
     <row r="51" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B51" s="5">
+      <c r="B51" s="6">
         <v>43066</v>
       </c>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
     </row>
     <row r="52" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B52" s="5">
+      <c r="B52" s="6">
         <v>43067</v>
       </c>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
     </row>
     <row r="53" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B53" s="5">
+      <c r="B53" s="6">
         <v>43068</v>
       </c>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
     </row>
     <row r="54" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B54" s="5">
+      <c r="B54" s="6">
         <v>43069</v>
       </c>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
     </row>
     <row r="55" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B55" s="5">
+      <c r="B55" s="6">
         <v>43070</v>
       </c>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
     </row>
     <row r="56" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B56" s="5">
+      <c r="B56" s="6">
         <v>43071</v>
       </c>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
     </row>
     <row r="57" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B57" s="5">
+      <c r="B57" s="6">
         <v>43072</v>
       </c>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
     </row>
     <row r="58" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B58" s="5">
+      <c r="B58" s="6">
         <v>43073</v>
       </c>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
     </row>
     <row r="59" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B59" s="5">
+      <c r="B59" s="6">
         <v>43074</v>
       </c>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
     </row>
     <row r="60" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B60" s="5">
+      <c r="B60" s="6">
         <v>43075</v>
       </c>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
     </row>
     <row r="61" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B61" s="5">
+      <c r="B61" s="6">
         <v>43076</v>
       </c>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
     </row>
     <row r="62" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B62" s="5">
+      <c r="B62" s="6">
         <v>43077</v>
       </c>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
     </row>
     <row r="63" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B63" s="5">
+      <c r="B63" s="6">
         <v>43078</v>
       </c>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
     </row>
     <row r="64" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B64" s="5">
+      <c r="B64" s="6">
         <v>43079</v>
       </c>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
     </row>
     <row r="65" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B65" s="5">
+      <c r="B65" s="6">
         <v>43080</v>
       </c>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
     </row>
     <row r="66" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B66" s="5">
+      <c r="B66" s="6">
         <v>43081</v>
       </c>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
     </row>
     <row r="67" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B67" s="5">
+      <c r="B67" s="6">
         <v>43082</v>
       </c>
-      <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
     </row>
     <row r="68" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B68" s="5">
+      <c r="B68" s="6">
         <v>43083</v>
       </c>
-      <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
     </row>
     <row r="69" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B69" s="5">
+      <c r="B69" s="6">
         <v>43084</v>
       </c>
-      <c r="C69" s="3"/>
-      <c r="D69" s="3"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
     </row>
     <row r="70" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B70" s="5">
+      <c r="B70" s="6">
         <v>43085</v>
       </c>
-      <c r="C70" s="3"/>
-      <c r="D70" s="3"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
     </row>
     <row r="71" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B71" s="5">
+      <c r="B71" s="6">
         <v>43086</v>
       </c>
-      <c r="C71" s="3"/>
-      <c r="D71" s="3"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
     </row>
     <row r="72" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B72" s="5">
+      <c r="B72" s="6">
         <v>43087</v>
       </c>
-      <c r="C72" s="3"/>
-      <c r="D72" s="3"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
     </row>
     <row r="73" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B73" s="5">
+      <c r="B73" s="6">
         <v>43088</v>
       </c>
-      <c r="C73" s="3"/>
-      <c r="D73" s="3"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
     </row>
     <row r="74" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B74" s="5">
+      <c r="B74" s="6">
         <v>43089</v>
       </c>
-      <c r="C74" s="3"/>
-      <c r="D74" s="3"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
     </row>
     <row r="75" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B75" s="5">
+      <c r="B75" s="6">
         <v>43090</v>
       </c>
-      <c r="C75" s="3"/>
-      <c r="D75" s="3"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
     </row>
     <row r="76" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B76" s="5">
+      <c r="B76" s="6">
         <v>43091</v>
       </c>
-      <c r="C76" s="3"/>
-      <c r="D76" s="3"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
     </row>
     <row r="77" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B77" s="5">
+      <c r="B77" s="6">
         <v>43092</v>
       </c>
-      <c r="C77" s="3"/>
-      <c r="D77" s="3"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
     </row>
     <row r="78" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B78" s="5">
+      <c r="B78" s="6">
         <v>43093</v>
       </c>
-      <c r="C78" s="3"/>
-      <c r="D78" s="3"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
     </row>
     <row r="79" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B79" s="5">
+      <c r="B79" s="6">
         <v>43094</v>
       </c>
-      <c r="C79" s="3"/>
-      <c r="D79" s="3"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
     </row>
     <row r="80" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B80" s="5">
+      <c r="B80" s="6">
         <v>43095</v>
       </c>
-      <c r="C80" s="3"/>
-      <c r="D80" s="3"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
     </row>
     <row r="81" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B81" s="5">
+      <c r="B81" s="6">
         <v>43096</v>
       </c>
-      <c r="C81" s="3"/>
-      <c r="D81" s="3"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="4"/>
     </row>
     <row r="82" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B82" s="5">
+      <c r="B82" s="6">
         <v>43097</v>
       </c>
-      <c r="C82" s="3"/>
-      <c r="D82" s="3"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
     </row>
     <row r="83" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B83" s="5">
+      <c r="B83" s="6">
         <v>43098</v>
       </c>
-      <c r="C83" s="3"/>
-      <c r="D83" s="3"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
     </row>
     <row r="84" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B84" s="5">
+      <c r="B84" s="6">
         <v>43099</v>
       </c>
-      <c r="C84" s="3"/>
-      <c r="D84" s="3"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="4"/>
     </row>
     <row r="85" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B85" s="5">
+      <c r="B85" s="6">
         <v>43100</v>
       </c>
-      <c r="C85" s="3"/>
-      <c r="D85" s="3"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
     </row>
     <row r="86" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B86" s="5">
+      <c r="B86" s="6">
         <v>43101</v>
       </c>
-      <c r="C86" s="3"/>
-      <c r="D86" s="3"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="4"/>
     </row>
     <row r="87" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B87" s="5">
+      <c r="B87" s="6">
         <v>43102</v>
       </c>
-      <c r="C87" s="3"/>
-      <c r="D87" s="3"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="4"/>
     </row>
     <row r="88" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B88" s="5">
+      <c r="B88" s="6">
         <v>43103</v>
       </c>
-      <c r="C88" s="3"/>
-      <c r="D88" s="3"/>
+      <c r="C88" s="4"/>
+      <c r="D88" s="4"/>
     </row>
     <row r="89" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B89" s="5">
+      <c r="B89" s="6">
         <v>43104</v>
       </c>
-      <c r="C89" s="3"/>
-      <c r="D89" s="3"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="4"/>
     </row>
     <row r="90" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B90" s="5">
+      <c r="B90" s="6">
         <v>43105</v>
       </c>
-      <c r="C90" s="3"/>
-      <c r="D90" s="3"/>
+      <c r="C90" s="4"/>
+      <c r="D90" s="4"/>
     </row>
     <row r="91" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B91" s="5">
+      <c r="B91" s="6">
         <v>43106</v>
       </c>
-      <c r="C91" s="3"/>
-      <c r="D91" s="3"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="4"/>
     </row>
     <row r="92" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B92" s="5">
+      <c r="B92" s="6">
         <v>43107</v>
       </c>
-      <c r="C92" s="3"/>
-      <c r="D92" s="3"/>
+      <c r="C92" s="4"/>
+      <c r="D92" s="4"/>
     </row>
     <row r="93" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B93" s="5">
+      <c r="B93" s="6">
         <v>43108</v>
       </c>
-      <c r="C93" s="3"/>
-      <c r="D93" s="3"/>
+      <c r="C93" s="4"/>
+      <c r="D93" s="4"/>
     </row>
     <row r="94" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B94" s="5">
+      <c r="B94" s="6">
         <v>43109</v>
       </c>
-      <c r="C94" s="3"/>
-      <c r="D94" s="3"/>
+      <c r="C94" s="4"/>
+      <c r="D94" s="4"/>
     </row>
     <row r="95" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B95" s="5">
+      <c r="B95" s="6">
         <v>43110</v>
       </c>
-      <c r="C95" s="3"/>
-      <c r="D95" s="3"/>
+      <c r="C95" s="4"/>
+      <c r="D95" s="4"/>
     </row>
     <row r="96" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B96" s="5">
+      <c r="B96" s="6">
         <v>43111</v>
       </c>
-      <c r="C96" s="3"/>
-      <c r="D96" s="3"/>
+      <c r="C96" s="4"/>
+      <c r="D96" s="4"/>
     </row>
     <row r="97" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B97" s="5">
+      <c r="B97" s="6">
         <v>43112</v>
       </c>
-      <c r="C97" s="3"/>
-      <c r="D97" s="3"/>
+      <c r="C97" s="4"/>
+      <c r="D97" s="4"/>
     </row>
     <row r="98" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B98" s="5">
+      <c r="B98" s="6">
         <v>43113</v>
       </c>
-      <c r="C98" s="3"/>
-      <c r="D98" s="3"/>
+      <c r="C98" s="4"/>
+      <c r="D98" s="4"/>
     </row>
     <row r="99" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B99" s="5">
+      <c r="B99" s="6">
         <v>43114</v>
       </c>
-      <c r="C99" s="3"/>
-      <c r="D99" s="3"/>
+      <c r="C99" s="4"/>
+      <c r="D99" s="4"/>
     </row>
     <row r="100" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B100" s="5">
+      <c r="B100" s="6">
         <v>43115</v>
       </c>
-      <c r="C100" s="3"/>
-      <c r="D100" s="3"/>
+      <c r="C100" s="4"/>
+      <c r="D100" s="4"/>
     </row>
     <row r="101" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B101" s="5">
+      <c r="B101" s="6">
         <v>43116</v>
       </c>
-      <c r="C101" s="3"/>
-      <c r="D101" s="3"/>
+      <c r="C101" s="4"/>
+      <c r="D101" s="4"/>
     </row>
     <row r="102" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B102" s="5">
+      <c r="B102" s="6">
         <v>43117</v>
       </c>
-      <c r="C102" s="3"/>
-      <c r="D102" s="3"/>
+      <c r="C102" s="4"/>
+      <c r="D102" s="4"/>
     </row>
     <row r="103" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B103" s="5">
+      <c r="B103" s="6">
         <v>43118</v>
       </c>
-      <c r="C103" s="3"/>
-      <c r="D103" s="3"/>
+      <c r="C103" s="4"/>
+      <c r="D103" s="4"/>
     </row>
     <row r="104" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B104" s="5">
+      <c r="B104" s="6">
         <v>43119</v>
       </c>
-      <c r="C104" s="3"/>
-      <c r="D104" s="3"/>
+      <c r="C104" s="4"/>
+      <c r="D104" s="4"/>
     </row>
     <row r="105" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B105" s="5">
+      <c r="B105" s="6">
         <v>43120</v>
       </c>
-      <c r="C105" s="3"/>
-      <c r="D105" s="3"/>
+      <c r="C105" s="4"/>
+      <c r="D105" s="4"/>
     </row>
     <row r="106" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B106" s="5">
+      <c r="B106" s="6">
         <v>43121</v>
       </c>
-      <c r="C106" s="3"/>
-      <c r="D106" s="3"/>
+      <c r="C106" s="4"/>
+      <c r="D106" s="4"/>
     </row>
     <row r="107" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B107" s="5">
+      <c r="B107" s="6">
         <v>43122</v>
       </c>
-      <c r="C107" s="3"/>
-      <c r="D107" s="3"/>
+      <c r="C107" s="4"/>
+      <c r="D107" s="4"/>
     </row>
     <row r="108" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B108" s="5">
+      <c r="B108" s="6">
         <v>43123</v>
       </c>
-      <c r="C108" s="3"/>
-      <c r="D108" s="3"/>
+      <c r="C108" s="4"/>
+      <c r="D108" s="4"/>
     </row>
     <row r="109" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B109" s="5">
+      <c r="B109" s="6">
         <v>43124</v>
       </c>
-      <c r="C109" s="3"/>
-      <c r="D109" s="3"/>
+      <c r="C109" s="4"/>
+      <c r="D109" s="4"/>
     </row>
     <row r="110" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B110" s="5">
+      <c r="B110" s="6">
         <v>43125</v>
       </c>
-      <c r="C110" s="3"/>
-      <c r="D110" s="3"/>
+      <c r="C110" s="4"/>
+      <c r="D110" s="4"/>
     </row>
     <row r="111" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B111" s="5">
+      <c r="B111" s="6">
         <v>43126</v>
       </c>
-      <c r="C111" s="3"/>
-      <c r="D111" s="3"/>
+      <c r="C111" s="4"/>
+      <c r="D111" s="4"/>
     </row>
     <row r="112" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B112" s="5">
+      <c r="B112" s="6">
         <v>43127</v>
       </c>
-      <c r="C112" s="3"/>
-      <c r="D112" s="3"/>
+      <c r="C112" s="4"/>
+      <c r="D112" s="4"/>
     </row>
     <row r="113" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B113" s="5">
+      <c r="B113" s="6">
         <v>43128</v>
       </c>
-      <c r="C113" s="3"/>
-      <c r="D113" s="3"/>
+      <c r="C113" s="4"/>
+      <c r="D113" s="4"/>
     </row>
     <row r="114" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B114" s="5">
+      <c r="B114" s="6">
         <v>43129</v>
       </c>
-      <c r="C114" s="3"/>
-      <c r="D114" s="3"/>
+      <c r="C114" s="4"/>
+      <c r="D114" s="4"/>
     </row>
     <row r="115" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B115" s="5">
+      <c r="B115" s="6">
         <v>43130</v>
       </c>
-      <c r="C115" s="3"/>
-      <c r="D115" s="3"/>
+      <c r="C115" s="4"/>
+      <c r="D115" s="4"/>
     </row>
     <row r="116" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B116" s="5">
+      <c r="B116" s="6">
         <v>43131</v>
       </c>
-      <c r="C116" s="3"/>
-      <c r="D116" s="3"/>
+      <c r="C116" s="4"/>
+      <c r="D116" s="4"/>
     </row>
     <row r="117" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B117" s="5">
+      <c r="B117" s="6">
         <v>43132</v>
       </c>
-      <c r="C117" s="3"/>
-      <c r="D117" s="3"/>
+      <c r="C117" s="4"/>
+      <c r="D117" s="4"/>
     </row>
     <row r="118" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B118" s="5">
+      <c r="B118" s="6">
         <v>43133</v>
       </c>
-      <c r="C118" s="3"/>
-      <c r="D118" s="3"/>
+      <c r="C118" s="4"/>
+      <c r="D118" s="4"/>
     </row>
     <row r="119" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B119" s="5">
+      <c r="B119" s="6">
         <v>43134</v>
       </c>
-      <c r="C119" s="3"/>
-      <c r="D119" s="3"/>
+      <c r="C119" s="4"/>
+      <c r="D119" s="4"/>
     </row>
     <row r="120" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B120" s="5">
+      <c r="B120" s="6">
         <v>43135</v>
       </c>
-      <c r="C120" s="3"/>
-      <c r="D120" s="3"/>
+      <c r="C120" s="4"/>
+      <c r="D120" s="4"/>
     </row>
     <row r="121" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B121" s="5">
+      <c r="B121" s="6">
         <v>43136</v>
       </c>
-      <c r="C121" s="3"/>
-      <c r="D121" s="3"/>
+      <c r="C121" s="4"/>
+      <c r="D121" s="4"/>
     </row>
     <row r="122" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B122" s="5">
+      <c r="B122" s="6">
         <v>43137</v>
       </c>
-      <c r="C122" s="3"/>
-      <c r="D122" s="3"/>
+      <c r="C122" s="4"/>
+      <c r="D122" s="4"/>
     </row>
     <row r="123" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B123" s="5">
+      <c r="B123" s="6">
         <v>43138</v>
       </c>
-      <c r="C123" s="3"/>
-      <c r="D123" s="3"/>
+      <c r="C123" s="4"/>
+      <c r="D123" s="4"/>
     </row>
     <row r="124" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B124" s="5">
+      <c r="B124" s="6">
         <v>43139</v>
       </c>
-      <c r="C124" s="3"/>
-      <c r="D124" s="3"/>
+      <c r="C124" s="4"/>
+      <c r="D124" s="4"/>
     </row>
     <row r="125" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B125" s="5">
+      <c r="B125" s="6">
         <v>43140</v>
       </c>
-      <c r="C125" s="3"/>
-      <c r="D125" s="3"/>
+      <c r="C125" s="4"/>
+      <c r="D125" s="4"/>
     </row>
     <row r="126" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B126" s="5">
+      <c r="B126" s="6">
         <v>43141</v>
       </c>
-      <c r="C126" s="3"/>
-      <c r="D126" s="3"/>
+      <c r="C126" s="4"/>
+      <c r="D126" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/redemption/reducefat.xlsx
+++ b/redemption/reducefat.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="图示" sheetId="3" r:id="rId1"/>
     <sheet name="进度统计" sheetId="1" r:id="rId2"/>
     <sheet name="记录" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -76,19 +76,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -148,14 +148,14 @@
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1411,6 +1411,69 @@
                 <c:pt idx="2">
                   <c:v>108</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>92</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1856,6 +1919,69 @@
                       </c:pt>
                       <c:pt idx="2">
                         <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>-1</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>-2</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>-2</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>-1</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>3</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2513,6 +2639,69 @@
                 <c:pt idx="2">
                   <c:v>68.3</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>68.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>68.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>67.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>68.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>67.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>68.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>67.8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>67.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>67.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>67.7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>67.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>67.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>67.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>67.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>67.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>67.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>67.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>66.7</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2920,6 +3109,78 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="114"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>79</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4332,6 +4593,69 @@
                 <c:pt idx="2">
                   <c:v>108</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>92</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4777,6 +5101,69 @@
                       </c:pt>
                       <c:pt idx="2">
                         <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>-1</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>-2</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>-2</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>-1</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>3</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -6989,13 +7376,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Z19" sqref="Z19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9" style="3"/>
+    <col min="1" max="16384" width="9" style="6"/>
   </cols>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -7009,7 +7396,7 @@
   <dimension ref="B1:E126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7082,8 +7469,12 @@
       <c r="C5" s="1">
         <v>122</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="D5" s="1">
+        <v>109</v>
+      </c>
+      <c r="E5" s="1">
+        <v>-1</v>
+      </c>
     </row>
     <row r="6" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B6" s="2">
@@ -7092,8 +7483,12 @@
       <c r="C6" s="1">
         <v>121</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="D6" s="1">
+        <v>108</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B7" s="2">
@@ -7102,8 +7497,12 @@
       <c r="C7" s="1">
         <v>120</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="D7" s="1">
+        <v>105</v>
+      </c>
+      <c r="E7" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="8" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B8" s="2">
@@ -7112,8 +7511,12 @@
       <c r="C8" s="1">
         <v>119</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="D8" s="1">
+        <v>105</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B9" s="2">
@@ -7122,8 +7525,12 @@
       <c r="C9" s="1">
         <v>118</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="D9" s="1">
+        <v>103</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="10" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B10" s="2">
@@ -7132,8 +7539,12 @@
       <c r="C10" s="1">
         <v>117</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="D10" s="1">
+        <v>105</v>
+      </c>
+      <c r="E10" s="1">
+        <v>-2</v>
+      </c>
     </row>
     <row r="11" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B11" s="2">
@@ -7142,8 +7553,12 @@
       <c r="C11" s="1">
         <v>116</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="D11" s="1">
+        <v>104</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B12" s="2">
@@ -7152,8 +7567,12 @@
       <c r="C12" s="1">
         <v>115</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="D12" s="1">
+        <v>106</v>
+      </c>
+      <c r="E12" s="1">
+        <v>-2</v>
+      </c>
     </row>
     <row r="13" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B13" s="2">
@@ -7162,8 +7581,12 @@
       <c r="C13" s="1">
         <v>114</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="D13" s="1">
+        <v>103</v>
+      </c>
+      <c r="E13" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="14" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B14" s="2">
@@ -7172,8 +7595,12 @@
       <c r="C14" s="1">
         <v>113</v>
       </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="D14" s="1">
+        <v>101</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B15" s="2">
@@ -7182,8 +7609,12 @@
       <c r="C15" s="1">
         <v>112</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="D15" s="1">
+        <v>101</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B16" s="2">
@@ -7192,8 +7623,12 @@
       <c r="C16" s="1">
         <v>111</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="D16" s="1">
+        <v>102</v>
+      </c>
+      <c r="E16" s="1">
+        <v>-1</v>
+      </c>
     </row>
     <row r="17" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B17" s="2">
@@ -7202,8 +7637,12 @@
       <c r="C17" s="1">
         <v>110</v>
       </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+      <c r="D17" s="1">
+        <v>101</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B18" s="2">
@@ -7212,8 +7651,12 @@
       <c r="C18" s="1">
         <v>109</v>
       </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+      <c r="D18" s="1">
+        <v>99</v>
+      </c>
+      <c r="E18" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="19" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B19" s="2">
@@ -7222,8 +7665,12 @@
       <c r="C19" s="1">
         <v>108</v>
       </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+      <c r="D19" s="1">
+        <v>96</v>
+      </c>
+      <c r="E19" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="20" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B20" s="2">
@@ -7232,8 +7679,12 @@
       <c r="C20" s="1">
         <v>107</v>
       </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
+      <c r="D20" s="1">
+        <v>96</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B21" s="2">
@@ -7242,8 +7693,12 @@
       <c r="C21" s="1">
         <v>106</v>
       </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
+      <c r="D21" s="1">
+        <v>96</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B22" s="2">
@@ -7252,8 +7707,12 @@
       <c r="C22" s="1">
         <v>105</v>
       </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
+      <c r="D22" s="1">
+        <v>96</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B23" s="2">
@@ -7262,8 +7721,12 @@
       <c r="C23" s="1">
         <v>104</v>
       </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
+      <c r="D23" s="1">
+        <v>96</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B24" s="2">
@@ -7272,8 +7735,12 @@
       <c r="C24" s="1">
         <v>103</v>
       </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
+      <c r="D24" s="1">
+        <v>95</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B25" s="2">
@@ -7282,8 +7749,12 @@
       <c r="C25" s="1">
         <v>102</v>
       </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
+      <c r="D25" s="1">
+        <v>92</v>
+      </c>
+      <c r="E25" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="26" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B26" s="2">
@@ -8306,908 +8777,998 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:D126"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9" style="5"/>
-    <col min="2" max="2" width="14.75" style="5" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="9" style="4"/>
+    <col min="2" max="2" width="14.75" style="4" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B2" s="6">
+      <c r="B2" s="5">
         <v>43017</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>69.7</v>
       </c>
-      <c r="D2" s="4"/>
+      <c r="D2" s="3">
+        <v>80</v>
+      </c>
     </row>
     <row r="3" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>43018</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>68.8</v>
       </c>
-      <c r="D3" s="4"/>
+      <c r="D3" s="3">
+        <v>80</v>
+      </c>
     </row>
     <row r="4" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>43019</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>68.3</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="D4" s="3">
+        <v>80</v>
+      </c>
     </row>
     <row r="5" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>43020</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
+      <c r="C5" s="3">
+        <v>68.400000000000006</v>
+      </c>
+      <c r="D5" s="3">
+        <v>80</v>
+      </c>
     </row>
     <row r="6" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>43021</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
+      <c r="C6" s="3">
+        <v>68.3</v>
+      </c>
+      <c r="D6" s="3">
+        <v>80</v>
+      </c>
     </row>
     <row r="7" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>43022</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
+      <c r="C7" s="3">
+        <v>68</v>
+      </c>
+      <c r="D7" s="3">
+        <v>80</v>
+      </c>
     </row>
     <row r="8" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>43023</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
+      <c r="C8" s="3">
+        <v>68</v>
+      </c>
+      <c r="D8" s="3">
+        <v>80</v>
+      </c>
     </row>
     <row r="9" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>43024</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
+      <c r="C9" s="3">
+        <v>67.8</v>
+      </c>
+      <c r="D9" s="3">
+        <v>80</v>
+      </c>
     </row>
     <row r="10" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>43025</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
+      <c r="C10" s="3">
+        <v>68.099999999999994</v>
+      </c>
+      <c r="D10" s="3">
+        <v>80</v>
+      </c>
     </row>
     <row r="11" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>43026</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
+      <c r="C11" s="3">
+        <v>67.900000000000006</v>
+      </c>
+      <c r="D11" s="3">
+        <v>80</v>
+      </c>
     </row>
     <row r="12" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <v>43027</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
+      <c r="C12" s="3">
+        <v>68.099999999999994</v>
+      </c>
+      <c r="D12" s="3">
+        <v>80</v>
+      </c>
     </row>
     <row r="13" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B13" s="6">
+      <c r="B13" s="5">
         <v>43028</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
+      <c r="C13" s="3">
+        <v>67.8</v>
+      </c>
+      <c r="D13" s="3">
+        <v>80</v>
+      </c>
     </row>
     <row r="14" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B14" s="6">
+      <c r="B14" s="5">
         <v>43029</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
+      <c r="C14" s="3">
+        <v>67.599999999999994</v>
+      </c>
+      <c r="D14" s="3">
+        <v>79</v>
+      </c>
     </row>
     <row r="15" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B15" s="6">
+      <c r="B15" s="5">
         <v>43030</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
+      <c r="C15" s="3">
+        <v>67.599999999999994</v>
+      </c>
+      <c r="D15" s="3">
+        <v>79</v>
+      </c>
     </row>
     <row r="16" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <v>43031</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
+      <c r="C16" s="3">
+        <v>67.7</v>
+      </c>
+      <c r="D16" s="3">
+        <v>79</v>
+      </c>
     </row>
     <row r="17" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B17" s="6">
+      <c r="B17" s="5">
         <v>43032</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
+      <c r="C17" s="3">
+        <v>67.599999999999994</v>
+      </c>
+      <c r="D17" s="3">
+        <v>79</v>
+      </c>
     </row>
     <row r="18" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B18" s="6">
+      <c r="B18" s="5">
         <v>43033</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
+      <c r="C18" s="3">
+        <v>67.400000000000006</v>
+      </c>
+      <c r="D18" s="3">
+        <v>79</v>
+      </c>
     </row>
     <row r="19" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B19" s="6">
+      <c r="B19" s="5">
         <v>43034</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
+      <c r="C19" s="3">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="D19" s="3">
+        <v>79</v>
+      </c>
     </row>
     <row r="20" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B20" s="6">
+      <c r="B20" s="5">
         <v>43035</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
+      <c r="C20" s="3">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="D20" s="3">
+        <v>79</v>
+      </c>
     </row>
     <row r="21" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B21" s="6">
+      <c r="B21" s="5">
         <v>43036</v>
       </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
+      <c r="C21" s="3">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="D21" s="3">
+        <v>79</v>
+      </c>
     </row>
     <row r="22" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B22" s="6">
+      <c r="B22" s="5">
         <v>43037</v>
       </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
+      <c r="C22" s="3">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="D22" s="3">
+        <v>79</v>
+      </c>
     </row>
     <row r="23" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B23" s="6">
+      <c r="B23" s="5">
         <v>43038</v>
       </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
+      <c r="C23" s="3">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="D23" s="3">
+        <v>79</v>
+      </c>
     </row>
     <row r="24" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B24" s="6">
+      <c r="B24" s="5">
         <v>43039</v>
       </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
+      <c r="C24" s="3">
+        <v>67</v>
+      </c>
+      <c r="D24" s="3">
+        <v>79</v>
+      </c>
     </row>
     <row r="25" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B25" s="6">
+      <c r="B25" s="5">
         <v>43040</v>
       </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
+      <c r="C25" s="3">
+        <v>66.7</v>
+      </c>
+      <c r="D25" s="3">
+        <v>79</v>
+      </c>
     </row>
     <row r="26" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B26" s="6">
+      <c r="B26" s="5">
         <v>43041</v>
       </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
     </row>
     <row r="27" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B27" s="6">
+      <c r="B27" s="5">
         <v>43042</v>
       </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
     </row>
     <row r="28" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B28" s="6">
+      <c r="B28" s="5">
         <v>43043</v>
       </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
     </row>
     <row r="29" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B29" s="6">
+      <c r="B29" s="5">
         <v>43044</v>
       </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
     </row>
     <row r="30" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B30" s="6">
+      <c r="B30" s="5">
         <v>43045</v>
       </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
     </row>
     <row r="31" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B31" s="6">
+      <c r="B31" s="5">
         <v>43046</v>
       </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
     </row>
     <row r="32" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B32" s="6">
+      <c r="B32" s="5">
         <v>43047</v>
       </c>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
     </row>
     <row r="33" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B33" s="6">
+      <c r="B33" s="5">
         <v>43048</v>
       </c>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
     </row>
     <row r="34" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B34" s="6">
+      <c r="B34" s="5">
         <v>43049</v>
       </c>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
     </row>
     <row r="35" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B35" s="6">
+      <c r="B35" s="5">
         <v>43050</v>
       </c>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
     </row>
     <row r="36" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B36" s="6">
+      <c r="B36" s="5">
         <v>43051</v>
       </c>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
     </row>
     <row r="37" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B37" s="6">
+      <c r="B37" s="5">
         <v>43052</v>
       </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
     </row>
     <row r="38" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B38" s="6">
+      <c r="B38" s="5">
         <v>43053</v>
       </c>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
     </row>
     <row r="39" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B39" s="6">
+      <c r="B39" s="5">
         <v>43054</v>
       </c>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
     </row>
     <row r="40" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B40" s="6">
+      <c r="B40" s="5">
         <v>43055</v>
       </c>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
     </row>
     <row r="41" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B41" s="6">
+      <c r="B41" s="5">
         <v>43056</v>
       </c>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
     </row>
     <row r="42" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B42" s="6">
+      <c r="B42" s="5">
         <v>43057</v>
       </c>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
     </row>
     <row r="43" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B43" s="6">
+      <c r="B43" s="5">
         <v>43058</v>
       </c>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
     </row>
     <row r="44" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B44" s="6">
+      <c r="B44" s="5">
         <v>43059</v>
       </c>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
     </row>
     <row r="45" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B45" s="6">
+      <c r="B45" s="5">
         <v>43060</v>
       </c>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
     </row>
     <row r="46" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B46" s="6">
+      <c r="B46" s="5">
         <v>43061</v>
       </c>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
     </row>
     <row r="47" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B47" s="6">
+      <c r="B47" s="5">
         <v>43062</v>
       </c>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
     </row>
     <row r="48" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B48" s="6">
+      <c r="B48" s="5">
         <v>43063</v>
       </c>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
     </row>
     <row r="49" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B49" s="6">
+      <c r="B49" s="5">
         <v>43064</v>
       </c>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
     </row>
     <row r="50" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B50" s="6">
+      <c r="B50" s="5">
         <v>43065</v>
       </c>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
     </row>
     <row r="51" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B51" s="6">
+      <c r="B51" s="5">
         <v>43066</v>
       </c>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
     </row>
     <row r="52" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B52" s="6">
+      <c r="B52" s="5">
         <v>43067</v>
       </c>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
     </row>
     <row r="53" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B53" s="6">
+      <c r="B53" s="5">
         <v>43068</v>
       </c>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
     </row>
     <row r="54" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B54" s="6">
+      <c r="B54" s="5">
         <v>43069</v>
       </c>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
     </row>
     <row r="55" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B55" s="6">
+      <c r="B55" s="5">
         <v>43070</v>
       </c>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
     </row>
     <row r="56" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B56" s="6">
+      <c r="B56" s="5">
         <v>43071</v>
       </c>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
     </row>
     <row r="57" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B57" s="6">
+      <c r="B57" s="5">
         <v>43072</v>
       </c>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
     </row>
     <row r="58" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B58" s="6">
+      <c r="B58" s="5">
         <v>43073</v>
       </c>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
     </row>
     <row r="59" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B59" s="6">
+      <c r="B59" s="5">
         <v>43074</v>
       </c>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
     </row>
     <row r="60" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B60" s="6">
+      <c r="B60" s="5">
         <v>43075</v>
       </c>
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
     </row>
     <row r="61" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B61" s="6">
+      <c r="B61" s="5">
         <v>43076</v>
       </c>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
     </row>
     <row r="62" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B62" s="6">
+      <c r="B62" s="5">
         <v>43077</v>
       </c>
-      <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
     </row>
     <row r="63" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B63" s="6">
+      <c r="B63" s="5">
         <v>43078</v>
       </c>
-      <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
     </row>
     <row r="64" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B64" s="6">
+      <c r="B64" s="5">
         <v>43079</v>
       </c>
-      <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
     </row>
     <row r="65" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B65" s="6">
+      <c r="B65" s="5">
         <v>43080</v>
       </c>
-      <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
     </row>
     <row r="66" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B66" s="6">
+      <c r="B66" s="5">
         <v>43081</v>
       </c>
-      <c r="C66" s="4"/>
-      <c r="D66" s="4"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
     </row>
     <row r="67" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B67" s="6">
+      <c r="B67" s="5">
         <v>43082</v>
       </c>
-      <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
     </row>
     <row r="68" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B68" s="6">
+      <c r="B68" s="5">
         <v>43083</v>
       </c>
-      <c r="C68" s="4"/>
-      <c r="D68" s="4"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
     </row>
     <row r="69" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B69" s="6">
+      <c r="B69" s="5">
         <v>43084</v>
       </c>
-      <c r="C69" s="4"/>
-      <c r="D69" s="4"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
     </row>
     <row r="70" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B70" s="6">
+      <c r="B70" s="5">
         <v>43085</v>
       </c>
-      <c r="C70" s="4"/>
-      <c r="D70" s="4"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
     </row>
     <row r="71" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B71" s="6">
+      <c r="B71" s="5">
         <v>43086</v>
       </c>
-      <c r="C71" s="4"/>
-      <c r="D71" s="4"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
     </row>
     <row r="72" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B72" s="6">
+      <c r="B72" s="5">
         <v>43087</v>
       </c>
-      <c r="C72" s="4"/>
-      <c r="D72" s="4"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
     </row>
     <row r="73" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B73" s="6">
+      <c r="B73" s="5">
         <v>43088</v>
       </c>
-      <c r="C73" s="4"/>
-      <c r="D73" s="4"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
     </row>
     <row r="74" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B74" s="6">
+      <c r="B74" s="5">
         <v>43089</v>
       </c>
-      <c r="C74" s="4"/>
-      <c r="D74" s="4"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
     </row>
     <row r="75" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B75" s="6">
+      <c r="B75" s="5">
         <v>43090</v>
       </c>
-      <c r="C75" s="4"/>
-      <c r="D75" s="4"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
     </row>
     <row r="76" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B76" s="6">
+      <c r="B76" s="5">
         <v>43091</v>
       </c>
-      <c r="C76" s="4"/>
-      <c r="D76" s="4"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
     </row>
     <row r="77" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B77" s="6">
+      <c r="B77" s="5">
         <v>43092</v>
       </c>
-      <c r="C77" s="4"/>
-      <c r="D77" s="4"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
     </row>
     <row r="78" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B78" s="6">
+      <c r="B78" s="5">
         <v>43093</v>
       </c>
-      <c r="C78" s="4"/>
-      <c r="D78" s="4"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
     </row>
     <row r="79" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B79" s="6">
+      <c r="B79" s="5">
         <v>43094</v>
       </c>
-      <c r="C79" s="4"/>
-      <c r="D79" s="4"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
     </row>
     <row r="80" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B80" s="6">
+      <c r="B80" s="5">
         <v>43095</v>
       </c>
-      <c r="C80" s="4"/>
-      <c r="D80" s="4"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
     </row>
     <row r="81" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B81" s="6">
+      <c r="B81" s="5">
         <v>43096</v>
       </c>
-      <c r="C81" s="4"/>
-      <c r="D81" s="4"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
     </row>
     <row r="82" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B82" s="6">
+      <c r="B82" s="5">
         <v>43097</v>
       </c>
-      <c r="C82" s="4"/>
-      <c r="D82" s="4"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="3"/>
     </row>
     <row r="83" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B83" s="6">
+      <c r="B83" s="5">
         <v>43098</v>
       </c>
-      <c r="C83" s="4"/>
-      <c r="D83" s="4"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
     </row>
     <row r="84" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B84" s="6">
+      <c r="B84" s="5">
         <v>43099</v>
       </c>
-      <c r="C84" s="4"/>
-      <c r="D84" s="4"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3"/>
     </row>
     <row r="85" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B85" s="6">
+      <c r="B85" s="5">
         <v>43100</v>
       </c>
-      <c r="C85" s="4"/>
-      <c r="D85" s="4"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
     </row>
     <row r="86" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B86" s="6">
+      <c r="B86" s="5">
         <v>43101</v>
       </c>
-      <c r="C86" s="4"/>
-      <c r="D86" s="4"/>
+      <c r="C86" s="3"/>
+      <c r="D86" s="3"/>
     </row>
     <row r="87" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B87" s="6">
+      <c r="B87" s="5">
         <v>43102</v>
       </c>
-      <c r="C87" s="4"/>
-      <c r="D87" s="4"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
     </row>
     <row r="88" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B88" s="6">
+      <c r="B88" s="5">
         <v>43103</v>
       </c>
-      <c r="C88" s="4"/>
-      <c r="D88" s="4"/>
+      <c r="C88" s="3"/>
+      <c r="D88" s="3"/>
     </row>
     <row r="89" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B89" s="6">
+      <c r="B89" s="5">
         <v>43104</v>
       </c>
-      <c r="C89" s="4"/>
-      <c r="D89" s="4"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="3"/>
     </row>
     <row r="90" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B90" s="6">
+      <c r="B90" s="5">
         <v>43105</v>
       </c>
-      <c r="C90" s="4"/>
-      <c r="D90" s="4"/>
+      <c r="C90" s="3"/>
+      <c r="D90" s="3"/>
     </row>
     <row r="91" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B91" s="6">
+      <c r="B91" s="5">
         <v>43106</v>
       </c>
-      <c r="C91" s="4"/>
-      <c r="D91" s="4"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="3"/>
     </row>
     <row r="92" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B92" s="6">
+      <c r="B92" s="5">
         <v>43107</v>
       </c>
-      <c r="C92" s="4"/>
-      <c r="D92" s="4"/>
+      <c r="C92" s="3"/>
+      <c r="D92" s="3"/>
     </row>
     <row r="93" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B93" s="6">
+      <c r="B93" s="5">
         <v>43108</v>
       </c>
-      <c r="C93" s="4"/>
-      <c r="D93" s="4"/>
+      <c r="C93" s="3"/>
+      <c r="D93" s="3"/>
     </row>
     <row r="94" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B94" s="6">
+      <c r="B94" s="5">
         <v>43109</v>
       </c>
-      <c r="C94" s="4"/>
-      <c r="D94" s="4"/>
+      <c r="C94" s="3"/>
+      <c r="D94" s="3"/>
     </row>
     <row r="95" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B95" s="6">
+      <c r="B95" s="5">
         <v>43110</v>
       </c>
-      <c r="C95" s="4"/>
-      <c r="D95" s="4"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="3"/>
     </row>
     <row r="96" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B96" s="6">
+      <c r="B96" s="5">
         <v>43111</v>
       </c>
-      <c r="C96" s="4"/>
-      <c r="D96" s="4"/>
+      <c r="C96" s="3"/>
+      <c r="D96" s="3"/>
     </row>
     <row r="97" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B97" s="6">
+      <c r="B97" s="5">
         <v>43112</v>
       </c>
-      <c r="C97" s="4"/>
-      <c r="D97" s="4"/>
+      <c r="C97" s="3"/>
+      <c r="D97" s="3"/>
     </row>
     <row r="98" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B98" s="6">
+      <c r="B98" s="5">
         <v>43113</v>
       </c>
-      <c r="C98" s="4"/>
-      <c r="D98" s="4"/>
+      <c r="C98" s="3"/>
+      <c r="D98" s="3"/>
     </row>
     <row r="99" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B99" s="6">
+      <c r="B99" s="5">
         <v>43114</v>
       </c>
-      <c r="C99" s="4"/>
-      <c r="D99" s="4"/>
+      <c r="C99" s="3"/>
+      <c r="D99" s="3"/>
     </row>
     <row r="100" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B100" s="6">
+      <c r="B100" s="5">
         <v>43115</v>
       </c>
-      <c r="C100" s="4"/>
-      <c r="D100" s="4"/>
+      <c r="C100" s="3"/>
+      <c r="D100" s="3"/>
     </row>
     <row r="101" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B101" s="6">
+      <c r="B101" s="5">
         <v>43116</v>
       </c>
-      <c r="C101" s="4"/>
-      <c r="D101" s="4"/>
+      <c r="C101" s="3"/>
+      <c r="D101" s="3"/>
     </row>
     <row r="102" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B102" s="6">
+      <c r="B102" s="5">
         <v>43117</v>
       </c>
-      <c r="C102" s="4"/>
-      <c r="D102" s="4"/>
+      <c r="C102" s="3"/>
+      <c r="D102" s="3"/>
     </row>
     <row r="103" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B103" s="6">
+      <c r="B103" s="5">
         <v>43118</v>
       </c>
-      <c r="C103" s="4"/>
-      <c r="D103" s="4"/>
+      <c r="C103" s="3"/>
+      <c r="D103" s="3"/>
     </row>
     <row r="104" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B104" s="6">
+      <c r="B104" s="5">
         <v>43119</v>
       </c>
-      <c r="C104" s="4"/>
-      <c r="D104" s="4"/>
+      <c r="C104" s="3"/>
+      <c r="D104" s="3"/>
     </row>
     <row r="105" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B105" s="6">
+      <c r="B105" s="5">
         <v>43120</v>
       </c>
-      <c r="C105" s="4"/>
-      <c r="D105" s="4"/>
+      <c r="C105" s="3"/>
+      <c r="D105" s="3"/>
     </row>
     <row r="106" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B106" s="6">
+      <c r="B106" s="5">
         <v>43121</v>
       </c>
-      <c r="C106" s="4"/>
-      <c r="D106" s="4"/>
+      <c r="C106" s="3"/>
+      <c r="D106" s="3"/>
     </row>
     <row r="107" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B107" s="6">
+      <c r="B107" s="5">
         <v>43122</v>
       </c>
-      <c r="C107" s="4"/>
-      <c r="D107" s="4"/>
+      <c r="C107" s="3"/>
+      <c r="D107" s="3"/>
     </row>
     <row r="108" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B108" s="6">
+      <c r="B108" s="5">
         <v>43123</v>
       </c>
-      <c r="C108" s="4"/>
-      <c r="D108" s="4"/>
+      <c r="C108" s="3"/>
+      <c r="D108" s="3"/>
     </row>
     <row r="109" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B109" s="6">
+      <c r="B109" s="5">
         <v>43124</v>
       </c>
-      <c r="C109" s="4"/>
-      <c r="D109" s="4"/>
+      <c r="C109" s="3"/>
+      <c r="D109" s="3"/>
     </row>
     <row r="110" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B110" s="6">
+      <c r="B110" s="5">
         <v>43125</v>
       </c>
-      <c r="C110" s="4"/>
-      <c r="D110" s="4"/>
+      <c r="C110" s="3"/>
+      <c r="D110" s="3"/>
     </row>
     <row r="111" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B111" s="6">
+      <c r="B111" s="5">
         <v>43126</v>
       </c>
-      <c r="C111" s="4"/>
-      <c r="D111" s="4"/>
+      <c r="C111" s="3"/>
+      <c r="D111" s="3"/>
     </row>
     <row r="112" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B112" s="6">
+      <c r="B112" s="5">
         <v>43127</v>
       </c>
-      <c r="C112" s="4"/>
-      <c r="D112" s="4"/>
+      <c r="C112" s="3"/>
+      <c r="D112" s="3"/>
     </row>
     <row r="113" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B113" s="6">
+      <c r="B113" s="5">
         <v>43128</v>
       </c>
-      <c r="C113" s="4"/>
-      <c r="D113" s="4"/>
+      <c r="C113" s="3"/>
+      <c r="D113" s="3"/>
     </row>
     <row r="114" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B114" s="6">
+      <c r="B114" s="5">
         <v>43129</v>
       </c>
-      <c r="C114" s="4"/>
-      <c r="D114" s="4"/>
+      <c r="C114" s="3"/>
+      <c r="D114" s="3"/>
     </row>
     <row r="115" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B115" s="6">
+      <c r="B115" s="5">
         <v>43130</v>
       </c>
-      <c r="C115" s="4"/>
-      <c r="D115" s="4"/>
+      <c r="C115" s="3"/>
+      <c r="D115" s="3"/>
     </row>
     <row r="116" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B116" s="6">
+      <c r="B116" s="5">
         <v>43131</v>
       </c>
-      <c r="C116" s="4"/>
-      <c r="D116" s="4"/>
+      <c r="C116" s="3"/>
+      <c r="D116" s="3"/>
     </row>
     <row r="117" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B117" s="6">
+      <c r="B117" s="5">
         <v>43132</v>
       </c>
-      <c r="C117" s="4"/>
-      <c r="D117" s="4"/>
+      <c r="C117" s="3"/>
+      <c r="D117" s="3"/>
     </row>
     <row r="118" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B118" s="6">
+      <c r="B118" s="5">
         <v>43133</v>
       </c>
-      <c r="C118" s="4"/>
-      <c r="D118" s="4"/>
+      <c r="C118" s="3"/>
+      <c r="D118" s="3"/>
     </row>
     <row r="119" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B119" s="6">
+      <c r="B119" s="5">
         <v>43134</v>
       </c>
-      <c r="C119" s="4"/>
-      <c r="D119" s="4"/>
+      <c r="C119" s="3"/>
+      <c r="D119" s="3"/>
     </row>
     <row r="120" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B120" s="6">
+      <c r="B120" s="5">
         <v>43135</v>
       </c>
-      <c r="C120" s="4"/>
-      <c r="D120" s="4"/>
+      <c r="C120" s="3"/>
+      <c r="D120" s="3"/>
     </row>
     <row r="121" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B121" s="6">
+      <c r="B121" s="5">
         <v>43136</v>
       </c>
-      <c r="C121" s="4"/>
-      <c r="D121" s="4"/>
+      <c r="C121" s="3"/>
+      <c r="D121" s="3"/>
     </row>
     <row r="122" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B122" s="6">
+      <c r="B122" s="5">
         <v>43137</v>
       </c>
-      <c r="C122" s="4"/>
-      <c r="D122" s="4"/>
+      <c r="C122" s="3"/>
+      <c r="D122" s="3"/>
     </row>
     <row r="123" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B123" s="6">
+      <c r="B123" s="5">
         <v>43138</v>
       </c>
-      <c r="C123" s="4"/>
-      <c r="D123" s="4"/>
+      <c r="C123" s="3"/>
+      <c r="D123" s="3"/>
     </row>
     <row r="124" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B124" s="6">
+      <c r="B124" s="5">
         <v>43139</v>
       </c>
-      <c r="C124" s="4"/>
-      <c r="D124" s="4"/>
+      <c r="C124" s="3"/>
+      <c r="D124" s="3"/>
     </row>
     <row r="125" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B125" s="6">
+      <c r="B125" s="5">
         <v>43140</v>
       </c>
-      <c r="C125" s="4"/>
-      <c r="D125" s="4"/>
+      <c r="C125" s="3"/>
+      <c r="D125" s="3"/>
     </row>
     <row r="126" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B126" s="6">
+      <c r="B126" s="5">
         <v>43141</v>
       </c>
-      <c r="C126" s="4"/>
-      <c r="D126" s="4"/>
+      <c r="C126" s="3"/>
+      <c r="D126" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/redemption/reducefat.xlsx
+++ b/redemption/reducefat.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -51,7 +51,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,6 +98,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -140,7 +149,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -156,6 +165,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1474,6 +1486,30 @@
                 <c:pt idx="23">
                   <c:v>92</c:v>
                 </c:pt>
+                <c:pt idx="24">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>84</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1982,6 +2018,30 @@
                       </c:pt>
                       <c:pt idx="23">
                         <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>-1</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>-6</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>5</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2702,6 +2762,30 @@
                 <c:pt idx="23">
                   <c:v>66.7</c:v>
                 </c:pt>
+                <c:pt idx="24">
+                  <c:v>66.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>66.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>66.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>66.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>66.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>67.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>66.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>65.900000000000006</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3180,6 +3264,30 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>78</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4656,6 +4764,30 @@
                 <c:pt idx="23">
                   <c:v>92</c:v>
                 </c:pt>
+                <c:pt idx="24">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>84</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5164,6 +5296,30 @@
                       </c:pt>
                       <c:pt idx="23">
                         <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>-1</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>-6</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>5</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -7376,7 +7532,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="Z19" sqref="Z19"/>
     </sheetView>
   </sheetViews>
@@ -7395,8 +7551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:E126"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7763,8 +7919,12 @@
       <c r="C26" s="1">
         <v>101</v>
       </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
+      <c r="D26" s="1">
+        <v>89</v>
+      </c>
+      <c r="E26" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="27" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B27" s="2">
@@ -7773,8 +7933,12 @@
       <c r="C27" s="1">
         <v>100</v>
       </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
+      <c r="D27" s="1">
+        <v>90</v>
+      </c>
+      <c r="E27" s="1">
+        <v>-1</v>
+      </c>
     </row>
     <row r="28" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B28" s="2">
@@ -7783,8 +7947,12 @@
       <c r="C28" s="1">
         <v>99</v>
       </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
+      <c r="D28" s="1">
+        <v>90</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B29" s="2">
@@ -7793,8 +7961,12 @@
       <c r="C29" s="1">
         <v>98</v>
       </c>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
+      <c r="D29" s="1">
+        <v>90</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B30" s="2">
@@ -7803,8 +7975,12 @@
       <c r="C30" s="1">
         <v>97</v>
       </c>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
+      <c r="D30" s="1">
+        <v>90</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B31" s="2">
@@ -7813,8 +7989,12 @@
       <c r="C31" s="1">
         <v>96</v>
       </c>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
+      <c r="D31" s="1">
+        <v>96</v>
+      </c>
+      <c r="E31" s="1">
+        <v>-6</v>
+      </c>
     </row>
     <row r="32" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B32" s="2">
@@ -7823,8 +8003,12 @@
       <c r="C32" s="1">
         <v>95</v>
       </c>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
+      <c r="D32" s="1">
+        <v>89</v>
+      </c>
+      <c r="E32" s="1">
+        <v>7</v>
+      </c>
     </row>
     <row r="33" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B33" s="2">
@@ -7833,8 +8017,12 @@
       <c r="C33" s="1">
         <v>94</v>
       </c>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
+      <c r="D33" s="1">
+        <v>84</v>
+      </c>
+      <c r="E33" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="34" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B34" s="2">
@@ -7927,7 +8115,7 @@
       <c r="E42" s="1"/>
     </row>
     <row r="43" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B43" s="2">
+      <c r="B43" s="7">
         <v>43058</v>
       </c>
       <c r="C43" s="1">
@@ -8347,7 +8535,7 @@
       <c r="E84" s="1"/>
     </row>
     <row r="85" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B85" s="2">
+      <c r="B85" s="7">
         <v>43100</v>
       </c>
       <c r="C85" s="1">
@@ -8777,8 +8965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:D126"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9067,57 +9255,89 @@
       <c r="B26" s="5">
         <v>43041</v>
       </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
+      <c r="C26" s="3">
+        <v>66.400000000000006</v>
+      </c>
+      <c r="D26" s="3">
+        <v>78</v>
+      </c>
     </row>
     <row r="27" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B27" s="5">
         <v>43042</v>
       </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
+      <c r="C27" s="3">
+        <v>66.5</v>
+      </c>
+      <c r="D27" s="3">
+        <v>78</v>
+      </c>
     </row>
     <row r="28" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B28" s="5">
         <v>43043</v>
       </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
+      <c r="C28" s="3">
+        <v>66.5</v>
+      </c>
+      <c r="D28" s="3">
+        <v>78</v>
+      </c>
     </row>
     <row r="29" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B29" s="5">
         <v>43044</v>
       </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
+      <c r="C29" s="3">
+        <v>66.5</v>
+      </c>
+      <c r="D29" s="3">
+        <v>78</v>
+      </c>
     </row>
     <row r="30" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B30" s="5">
         <v>43045</v>
       </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
+      <c r="C30" s="3">
+        <v>66.5</v>
+      </c>
+      <c r="D30" s="3">
+        <v>78</v>
+      </c>
     </row>
     <row r="31" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B31" s="5">
         <v>43046</v>
       </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
+      <c r="C31" s="3">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="D31" s="3">
+        <v>78</v>
+      </c>
     </row>
     <row r="32" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B32" s="5">
         <v>43047</v>
       </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
+      <c r="C32" s="3">
+        <v>66.400000000000006</v>
+      </c>
+      <c r="D32" s="3">
+        <v>78</v>
+      </c>
     </row>
     <row r="33" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B33" s="5">
         <v>43048</v>
       </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
+      <c r="C33" s="3">
+        <v>65.900000000000006</v>
+      </c>
+      <c r="D33" s="3">
+        <v>78</v>
+      </c>
     </row>
     <row r="34" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B34" s="5">

--- a/redemption/reducefat.xlsx
+++ b/redemption/reducefat.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="图示" sheetId="3" r:id="rId1"/>
@@ -1510,6 +1510,99 @@
                 <c:pt idx="31">
                   <c:v>84</c:v>
                 </c:pt>
+                <c:pt idx="32">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>74</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2042,6 +2135,99 @@
                       </c:pt>
                       <c:pt idx="31">
                         <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>-21</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>-3</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>-13</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>-3</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>-4</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>-2</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>-8</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>-4</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>1</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2284,7 +2470,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="3.056162950824573E-2"/>
+          <c:x val="3.2786323353002508E-2"/>
           <c:y val="6.7901575908848974E-2"/>
           <c:w val="0.94183435623031952"/>
           <c:h val="0.84146606383201161"/>
@@ -2786,6 +2972,99 @@
                 <c:pt idx="31">
                   <c:v>65.900000000000006</c:v>
                 </c:pt>
+                <c:pt idx="32">
+                  <c:v>65.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>65.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>65.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>66.7</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>66.3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>66.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>66.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>67.3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>66.7</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>66.3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>65.5</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>65.3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>65.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>65.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>65.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>65.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>65.5</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>65.7</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>65.7</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>65.8</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>65.2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>64.8</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>65.2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>65.2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>65.2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>65</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3288,6 +3567,99 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4788,6 +5160,99 @@
                 <c:pt idx="31">
                   <c:v>84</c:v>
                 </c:pt>
+                <c:pt idx="32">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>74</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5320,6 +5785,99 @@
                       </c:pt>
                       <c:pt idx="31">
                         <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>-21</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>-3</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>-13</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>-3</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>-4</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>-2</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>-8</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>-4</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>1</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -7195,15 +7753,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>28573</xdr:colOff>
+      <xdr:colOff>28574</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>161924</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7231,15 +7789,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>209549</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>9524</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7532,8 +8090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="Z19" sqref="Z19"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="Z65" sqref="Z65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7551,8 +8109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:E126"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B85" sqref="B85"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="K67" sqref="K67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8031,8 +8589,12 @@
       <c r="C34" s="1">
         <v>93</v>
       </c>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
+      <c r="D34" s="1">
+        <v>84</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="35" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B35" s="2">
@@ -8041,8 +8603,12 @@
       <c r="C35" s="1">
         <v>92</v>
       </c>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
+      <c r="D35" s="1">
+        <v>84</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="36" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B36" s="2">
@@ -8051,8 +8617,12 @@
       <c r="C36" s="1">
         <v>91</v>
       </c>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
+      <c r="D36" s="3">
+        <v>84</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="37" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B37" s="2">
@@ -8061,8 +8631,12 @@
       <c r="C37" s="1">
         <v>90</v>
       </c>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
+      <c r="D37" s="3">
+        <v>105</v>
+      </c>
+      <c r="E37" s="1">
+        <v>-21</v>
+      </c>
     </row>
     <row r="38" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B38" s="2">
@@ -8071,8 +8645,12 @@
       <c r="C38" s="1">
         <v>89</v>
       </c>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
+      <c r="D38" s="3">
+        <v>92</v>
+      </c>
+      <c r="E38" s="1">
+        <v>13</v>
+      </c>
     </row>
     <row r="39" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B39" s="2">
@@ -8081,8 +8659,12 @@
       <c r="C39" s="1">
         <v>88</v>
       </c>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
+      <c r="D39" s="3">
+        <v>88</v>
+      </c>
+      <c r="E39" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="40" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B40" s="2">
@@ -8091,8 +8673,12 @@
       <c r="C40" s="1">
         <v>87</v>
       </c>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
+      <c r="D40" s="3">
+        <v>91</v>
+      </c>
+      <c r="E40" s="1">
+        <v>-3</v>
+      </c>
     </row>
     <row r="41" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B41" s="2">
@@ -8101,8 +8687,12 @@
       <c r="C41" s="1">
         <v>86</v>
       </c>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
+      <c r="D41" s="3">
+        <v>88</v>
+      </c>
+      <c r="E41" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="42" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B42" s="2">
@@ -8111,8 +8701,12 @@
       <c r="C42" s="1">
         <v>85</v>
       </c>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
+      <c r="D42" s="3">
+        <v>84</v>
+      </c>
+      <c r="E42" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="43" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B43" s="7">
@@ -8121,8 +8715,12 @@
       <c r="C43" s="1">
         <v>84</v>
       </c>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
+      <c r="D43" s="3">
+        <v>97</v>
+      </c>
+      <c r="E43" s="1">
+        <v>-13</v>
+      </c>
     </row>
     <row r="44" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B44" s="2">
@@ -8131,8 +8729,12 @@
       <c r="C44" s="1">
         <v>83</v>
       </c>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
+      <c r="D44" s="3">
+        <v>91</v>
+      </c>
+      <c r="E44" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="45" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B45" s="2">
@@ -8141,8 +8743,12 @@
       <c r="C45" s="1">
         <v>82</v>
       </c>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
+      <c r="D45" s="3">
+        <v>87</v>
+      </c>
+      <c r="E45" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="46" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B46" s="2">
@@ -8151,8 +8757,12 @@
       <c r="C46" s="1">
         <v>81</v>
       </c>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
+      <c r="D46" s="3">
+        <v>79</v>
+      </c>
+      <c r="E46" s="1">
+        <v>8</v>
+      </c>
     </row>
     <row r="47" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B47" s="2">
@@ -8161,8 +8771,12 @@
       <c r="C47" s="1">
         <v>80</v>
       </c>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
+      <c r="D47" s="3">
+        <v>77</v>
+      </c>
+      <c r="E47" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="48" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B48" s="2">
@@ -8171,8 +8785,12 @@
       <c r="C48" s="1">
         <v>79</v>
       </c>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
+      <c r="D48" s="3">
+        <v>80</v>
+      </c>
+      <c r="E48" s="1">
+        <v>-3</v>
+      </c>
     </row>
     <row r="49" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B49" s="2">
@@ -8181,8 +8799,12 @@
       <c r="C49" s="1">
         <v>78</v>
       </c>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
+      <c r="D49" s="3">
+        <v>80</v>
+      </c>
+      <c r="E49" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="50" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B50" s="2">
@@ -8191,8 +8813,12 @@
       <c r="C50" s="1">
         <v>77</v>
       </c>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
+      <c r="D50" s="3">
+        <v>80</v>
+      </c>
+      <c r="E50" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="51" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B51" s="2">
@@ -8201,8 +8827,12 @@
       <c r="C51" s="1">
         <v>76</v>
       </c>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
+      <c r="D51" s="3">
+        <v>80</v>
+      </c>
+      <c r="E51" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="52" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B52" s="2">
@@ -8211,8 +8841,12 @@
       <c r="C52" s="1">
         <v>75</v>
       </c>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
+      <c r="D52" s="3">
+        <v>84</v>
+      </c>
+      <c r="E52" s="1">
+        <v>-4</v>
+      </c>
     </row>
     <row r="53" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B53" s="2">
@@ -8221,8 +8855,12 @@
       <c r="C53" s="1">
         <v>74</v>
       </c>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
+      <c r="D53" s="3">
+        <v>79</v>
+      </c>
+      <c r="E53" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="54" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B54" s="2">
@@ -8231,8 +8869,12 @@
       <c r="C54" s="1">
         <v>73</v>
       </c>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
+      <c r="D54" s="3">
+        <v>81</v>
+      </c>
+      <c r="E54" s="1">
+        <v>-2</v>
+      </c>
     </row>
     <row r="55" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B55" s="2">
@@ -8241,8 +8883,12 @@
       <c r="C55" s="1">
         <v>72</v>
       </c>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
+      <c r="D55" s="3">
+        <v>81</v>
+      </c>
+      <c r="E55" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="56" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B56" s="2">
@@ -8251,8 +8897,12 @@
       <c r="C56" s="1">
         <v>71</v>
       </c>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
+      <c r="D56" s="3">
+        <v>74</v>
+      </c>
+      <c r="E56" s="1">
+        <v>7</v>
+      </c>
     </row>
     <row r="57" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B57" s="2">
@@ -8261,8 +8911,12 @@
       <c r="C57" s="1">
         <v>70</v>
       </c>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
+      <c r="D57" s="3">
+        <v>74</v>
+      </c>
+      <c r="E57" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="58" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B58" s="2">
@@ -8271,8 +8925,12 @@
       <c r="C58" s="1">
         <v>69</v>
       </c>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
+      <c r="D58" s="3">
+        <v>82</v>
+      </c>
+      <c r="E58" s="1">
+        <v>-8</v>
+      </c>
     </row>
     <row r="59" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B59" s="2">
@@ -8281,8 +8939,12 @@
       <c r="C59" s="1">
         <v>68</v>
       </c>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
+      <c r="D59" s="3">
+        <v>76</v>
+      </c>
+      <c r="E59" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="60" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B60" s="2">
@@ -8291,8 +8953,12 @@
       <c r="C60" s="1">
         <v>67</v>
       </c>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
+      <c r="D60" s="3">
+        <v>72</v>
+      </c>
+      <c r="E60" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="61" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B61" s="2">
@@ -8301,8 +8967,12 @@
       <c r="C61" s="1">
         <v>66</v>
       </c>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
+      <c r="D61" s="3">
+        <v>76</v>
+      </c>
+      <c r="E61" s="1">
+        <v>-4</v>
+      </c>
     </row>
     <row r="62" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B62" s="2">
@@ -8311,8 +8981,12 @@
       <c r="C62" s="1">
         <v>65</v>
       </c>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
+      <c r="D62" s="3">
+        <v>76</v>
+      </c>
+      <c r="E62" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="63" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B63" s="2">
@@ -8321,8 +8995,12 @@
       <c r="C63" s="1">
         <v>64</v>
       </c>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
+      <c r="D63" s="3">
+        <v>76</v>
+      </c>
+      <c r="E63" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="64" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B64" s="2">
@@ -8331,8 +9009,12 @@
       <c r="C64" s="1">
         <v>63</v>
       </c>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
+      <c r="D64" s="1">
+        <v>74</v>
+      </c>
+      <c r="E64" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="65" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B65" s="2">
@@ -8965,8 +9647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:D126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9343,218 +10025,342 @@
       <c r="B34" s="5">
         <v>43049</v>
       </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
+      <c r="C34" s="3">
+        <v>65.900000000000006</v>
+      </c>
+      <c r="D34" s="3">
+        <v>77</v>
+      </c>
     </row>
     <row r="35" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B35" s="5">
         <v>43050</v>
       </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
+      <c r="C35" s="3">
+        <v>65.900000000000006</v>
+      </c>
+      <c r="D35" s="3">
+        <v>77</v>
+      </c>
     </row>
     <row r="36" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B36" s="5">
         <v>43051</v>
       </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
+      <c r="C36" s="3">
+        <v>65.900000000000006</v>
+      </c>
+      <c r="D36" s="3">
+        <v>77</v>
+      </c>
     </row>
     <row r="37" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B37" s="5">
         <v>43052</v>
       </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
+      <c r="C37" s="3">
+        <v>68</v>
+      </c>
+      <c r="D37" s="3">
+        <v>77</v>
+      </c>
     </row>
     <row r="38" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B38" s="5">
         <v>43053</v>
       </c>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
+      <c r="C38" s="3">
+        <v>66.7</v>
+      </c>
+      <c r="D38" s="3">
+        <v>77</v>
+      </c>
     </row>
     <row r="39" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B39" s="5">
         <v>43054</v>
       </c>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
+      <c r="C39" s="3">
+        <v>66.3</v>
+      </c>
+      <c r="D39" s="3">
+        <v>77</v>
+      </c>
     </row>
     <row r="40" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B40" s="5">
         <v>43055</v>
       </c>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
+      <c r="C40" s="3">
+        <v>66.599999999999994</v>
+      </c>
+      <c r="D40" s="3">
+        <v>77</v>
+      </c>
     </row>
     <row r="41" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B41" s="5">
         <v>43056</v>
       </c>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
+      <c r="C41" s="3">
+        <v>66.400000000000006</v>
+      </c>
+      <c r="D41" s="3">
+        <v>77</v>
+      </c>
     </row>
     <row r="42" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B42" s="5">
         <v>43057</v>
       </c>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
+      <c r="C42" s="3">
+        <v>66</v>
+      </c>
+      <c r="D42" s="3">
+        <v>77</v>
+      </c>
     </row>
     <row r="43" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B43" s="5">
         <v>43058</v>
       </c>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
+      <c r="C43" s="3">
+        <v>67.3</v>
+      </c>
+      <c r="D43" s="3">
+        <v>77</v>
+      </c>
     </row>
     <row r="44" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B44" s="5">
         <v>43059</v>
       </c>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
+      <c r="C44" s="3">
+        <v>66.7</v>
+      </c>
+      <c r="D44" s="3">
+        <v>77</v>
+      </c>
     </row>
     <row r="45" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B45" s="5">
         <v>43060</v>
       </c>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
+      <c r="C45" s="3">
+        <v>66.3</v>
+      </c>
+      <c r="D45" s="3">
+        <v>77</v>
+      </c>
     </row>
     <row r="46" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B46" s="5">
         <v>43061</v>
       </c>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
+      <c r="C46" s="3">
+        <v>65.5</v>
+      </c>
+      <c r="D46" s="3">
+        <v>76</v>
+      </c>
     </row>
     <row r="47" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B47" s="5">
         <v>43062</v>
       </c>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
+      <c r="C47" s="3">
+        <v>65.3</v>
+      </c>
+      <c r="D47" s="3">
+        <v>76</v>
+      </c>
     </row>
     <row r="48" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B48" s="5">
         <v>43063</v>
       </c>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
+      <c r="C48" s="3">
+        <v>65.599999999999994</v>
+      </c>
+      <c r="D48" s="3">
+        <v>76</v>
+      </c>
     </row>
     <row r="49" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B49" s="5">
         <v>43064</v>
       </c>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
+      <c r="C49" s="3">
+        <v>65.599999999999994</v>
+      </c>
+      <c r="D49" s="3">
+        <v>76</v>
+      </c>
     </row>
     <row r="50" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B50" s="5">
         <v>43065</v>
       </c>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
+      <c r="C50" s="3">
+        <v>65.599999999999994</v>
+      </c>
+      <c r="D50" s="3">
+        <v>76</v>
+      </c>
     </row>
     <row r="51" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B51" s="5">
         <v>43066</v>
       </c>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
+      <c r="C51" s="3">
+        <v>65.599999999999994</v>
+      </c>
+      <c r="D51" s="3">
+        <v>76</v>
+      </c>
     </row>
     <row r="52" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B52" s="5">
         <v>43067</v>
       </c>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
+      <c r="C52" s="3">
+        <v>66</v>
+      </c>
+      <c r="D52" s="3">
+        <v>76</v>
+      </c>
     </row>
     <row r="53" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B53" s="5">
         <v>43068</v>
       </c>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
+      <c r="C53" s="3">
+        <v>65.5</v>
+      </c>
+      <c r="D53" s="3">
+        <v>76</v>
+      </c>
     </row>
     <row r="54" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B54" s="5">
         <v>43069</v>
       </c>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
+      <c r="C54" s="3">
+        <v>65.7</v>
+      </c>
+      <c r="D54" s="3">
+        <v>76</v>
+      </c>
     </row>
     <row r="55" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B55" s="5">
         <v>43070</v>
       </c>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
+      <c r="C55" s="3">
+        <v>65.7</v>
+      </c>
+      <c r="D55" s="3">
+        <v>76</v>
+      </c>
     </row>
     <row r="56" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B56" s="5">
         <v>43071</v>
       </c>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
+      <c r="C56" s="3">
+        <v>65</v>
+      </c>
+      <c r="D56" s="3">
+        <v>76</v>
+      </c>
     </row>
     <row r="57" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B57" s="5">
         <v>43072</v>
       </c>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
+      <c r="C57" s="3">
+        <v>65</v>
+      </c>
+      <c r="D57" s="3">
+        <v>76</v>
+      </c>
     </row>
     <row r="58" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B58" s="5">
         <v>43073</v>
       </c>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
+      <c r="C58" s="3">
+        <v>65.8</v>
+      </c>
+      <c r="D58" s="3">
+        <v>76</v>
+      </c>
     </row>
     <row r="59" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B59" s="5">
         <v>43074</v>
       </c>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
+      <c r="C59" s="3">
+        <v>65.2</v>
+      </c>
+      <c r="D59" s="3">
+        <v>75</v>
+      </c>
     </row>
     <row r="60" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B60" s="5">
         <v>43075</v>
       </c>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
+      <c r="C60" s="3">
+        <v>64.8</v>
+      </c>
+      <c r="D60" s="3">
+        <v>75</v>
+      </c>
     </row>
     <row r="61" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B61" s="5">
         <v>43076</v>
       </c>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
+      <c r="C61" s="3">
+        <v>65.2</v>
+      </c>
+      <c r="D61" s="3">
+        <v>75</v>
+      </c>
     </row>
     <row r="62" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B62" s="5">
         <v>43077</v>
       </c>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
+      <c r="C62" s="3">
+        <v>65.2</v>
+      </c>
+      <c r="D62" s="3">
+        <v>75</v>
+      </c>
     </row>
     <row r="63" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B63" s="5">
         <v>43078</v>
       </c>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
+      <c r="C63" s="3">
+        <v>65.2</v>
+      </c>
+      <c r="D63" s="3">
+        <v>75</v>
+      </c>
     </row>
     <row r="64" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B64" s="5">
         <v>43079</v>
       </c>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
+      <c r="C64" s="3">
+        <v>65</v>
+      </c>
+      <c r="D64" s="3">
+        <v>75</v>
+      </c>
     </row>
     <row r="65" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B65" s="5">

--- a/redemption/reducefat.xlsx
+++ b/redemption/reducefat.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -122,7 +122,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -145,11 +145,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -166,6 +177,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1603,6 +1620,60 @@
                 <c:pt idx="62">
                   <c:v>74</c:v>
                 </c:pt>
+                <c:pt idx="63">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>60</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2228,6 +2299,60 @@
                       </c:pt>
                       <c:pt idx="62">
                         <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>-3</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>-1</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>-13</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>-6</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>4</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3065,6 +3190,60 @@
                 <c:pt idx="62">
                   <c:v>65</c:v>
                 </c:pt>
+                <c:pt idx="63">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65.3</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>64.7</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>64.8</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>64.3</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>64.3</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>64.3</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>64.3</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>65.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>64.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>64.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>64.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>64.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>64.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>64.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>63.6</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3660,6 +3839,60 @@
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>74</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5253,6 +5486,60 @@
                 <c:pt idx="62">
                   <c:v>74</c:v>
                 </c:pt>
+                <c:pt idx="63">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>60</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5878,6 +6165,60 @@
                       </c:pt>
                       <c:pt idx="62">
                         <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>-3</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>-1</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>-13</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>-6</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>4</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -8090,7 +8431,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="Z65" sqref="Z65"/>
     </sheetView>
   </sheetViews>
@@ -8109,8 +8450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:E126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="K67" sqref="K67"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="O104" sqref="O104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9023,8 +9364,12 @@
       <c r="C65" s="1">
         <v>62</v>
       </c>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
+      <c r="D65" s="1">
+        <v>74</v>
+      </c>
+      <c r="E65" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="66" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B66" s="2">
@@ -9033,8 +9378,12 @@
       <c r="C66" s="1">
         <v>61</v>
       </c>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
+      <c r="D66" s="1">
+        <v>77</v>
+      </c>
+      <c r="E66" s="1">
+        <v>-3</v>
+      </c>
     </row>
     <row r="67" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B67" s="2">
@@ -9043,8 +9392,12 @@
       <c r="C67" s="1">
         <v>60</v>
       </c>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
+      <c r="D67" s="1">
+        <v>71</v>
+      </c>
+      <c r="E67" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="68" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B68" s="2">
@@ -9053,8 +9406,12 @@
       <c r="C68" s="1">
         <v>59</v>
       </c>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
+      <c r="D68" s="1">
+        <v>72</v>
+      </c>
+      <c r="E68" s="1">
+        <v>-1</v>
+      </c>
     </row>
     <row r="69" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B69" s="2">
@@ -9063,8 +9420,12 @@
       <c r="C69" s="1">
         <v>58</v>
       </c>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
+      <c r="D69" s="1">
+        <v>67</v>
+      </c>
+      <c r="E69" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="70" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B70" s="2">
@@ -9073,8 +9434,12 @@
       <c r="C70" s="1">
         <v>57</v>
       </c>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
+      <c r="D70" s="1">
+        <v>67</v>
+      </c>
+      <c r="E70" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="71" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B71" s="2">
@@ -9083,8 +9448,12 @@
       <c r="C71" s="1">
         <v>56</v>
       </c>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
+      <c r="D71" s="1">
+        <v>67</v>
+      </c>
+      <c r="E71" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="72" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B72" s="2">
@@ -9093,8 +9462,12 @@
       <c r="C72" s="1">
         <v>55</v>
       </c>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
+      <c r="D72" s="1">
+        <v>67</v>
+      </c>
+      <c r="E72" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="73" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B73" s="2">
@@ -9103,8 +9476,12 @@
       <c r="C73" s="1">
         <v>54</v>
       </c>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
+      <c r="D73" s="1">
+        <v>80</v>
+      </c>
+      <c r="E73" s="1">
+        <v>-13</v>
+      </c>
     </row>
     <row r="74" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B74" s="2">
@@ -9113,8 +9490,12 @@
       <c r="C74" s="1">
         <v>53</v>
       </c>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
+      <c r="D74" s="1">
+        <v>68</v>
+      </c>
+      <c r="E74" s="1">
+        <v>12</v>
+      </c>
     </row>
     <row r="75" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B75" s="2">
@@ -9123,8 +9504,12 @@
       <c r="C75" s="1">
         <v>52</v>
       </c>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
+      <c r="D75" s="1">
+        <v>64</v>
+      </c>
+      <c r="E75" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="76" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B76" s="2">
@@ -9133,8 +9518,12 @@
       <c r="C76" s="1">
         <v>51</v>
       </c>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
+      <c r="D76" s="1">
+        <v>70</v>
+      </c>
+      <c r="E76" s="1">
+        <v>-6</v>
+      </c>
     </row>
     <row r="77" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B77" s="2">
@@ -9143,8 +9532,12 @@
       <c r="C77" s="1">
         <v>50</v>
       </c>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
+      <c r="D77" s="1">
+        <v>70</v>
+      </c>
+      <c r="E77" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="78" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B78" s="2">
@@ -9153,8 +9546,12 @@
       <c r="C78" s="1">
         <v>49</v>
       </c>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
+      <c r="D78" s="1">
+        <v>70</v>
+      </c>
+      <c r="E78" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="79" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B79" s="2">
@@ -9163,8 +9560,12 @@
       <c r="C79" s="1">
         <v>48</v>
       </c>
-      <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
+      <c r="D79" s="1">
+        <v>70</v>
+      </c>
+      <c r="E79" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="80" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B80" s="2">
@@ -9173,8 +9574,12 @@
       <c r="C80" s="1">
         <v>47</v>
       </c>
-      <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
+      <c r="D80" s="1">
+        <v>70</v>
+      </c>
+      <c r="E80" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="81" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B81" s="2">
@@ -9183,8 +9588,12 @@
       <c r="C81" s="1">
         <v>46</v>
       </c>
-      <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
+      <c r="D81" s="1">
+        <v>64</v>
+      </c>
+      <c r="E81" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="82" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B82" s="2">
@@ -9193,8 +9602,12 @@
       <c r="C82" s="1">
         <v>45</v>
       </c>
-      <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
+      <c r="D82" s="1">
+        <v>60</v>
+      </c>
+      <c r="E82" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="83" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B83" s="2">
@@ -9547,14 +9960,14 @@
       <c r="E117" s="1"/>
     </row>
     <row r="118" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B118" s="2">
+      <c r="B118" s="7">
         <v>43133</v>
       </c>
-      <c r="C118" s="1">
+      <c r="C118" s="9">
         <v>9</v>
       </c>
-      <c r="D118" s="1"/>
-      <c r="E118" s="1"/>
+      <c r="D118" s="9"/>
+      <c r="E118" s="9"/>
     </row>
     <row r="119" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B119" s="2">
@@ -9647,8 +10060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:D126"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+    <sheetView topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10366,127 +10779,199 @@
       <c r="B65" s="5">
         <v>43080</v>
       </c>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
+      <c r="C65" s="8">
+        <v>65</v>
+      </c>
+      <c r="D65" s="3">
+        <v>75</v>
+      </c>
     </row>
     <row r="66" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B66" s="5">
         <v>43081</v>
       </c>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
+      <c r="C66" s="3">
+        <v>65.3</v>
+      </c>
+      <c r="D66" s="3">
+        <v>75</v>
+      </c>
     </row>
     <row r="67" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B67" s="5">
         <v>43082</v>
       </c>
-      <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
+      <c r="C67" s="3">
+        <v>64.7</v>
+      </c>
+      <c r="D67" s="3">
+        <v>75</v>
+      </c>
     </row>
     <row r="68" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B68" s="5">
         <v>43083</v>
       </c>
-      <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
+      <c r="C68" s="3">
+        <v>64.8</v>
+      </c>
+      <c r="D68" s="3">
+        <v>75</v>
+      </c>
     </row>
     <row r="69" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B69" s="5">
         <v>43084</v>
       </c>
-      <c r="C69" s="3"/>
-      <c r="D69" s="3"/>
+      <c r="C69" s="3">
+        <v>64.3</v>
+      </c>
+      <c r="D69" s="3">
+        <v>75</v>
+      </c>
     </row>
     <row r="70" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B70" s="5">
         <v>43085</v>
       </c>
-      <c r="C70" s="3"/>
-      <c r="D70" s="3"/>
+      <c r="C70" s="3">
+        <v>64.3</v>
+      </c>
+      <c r="D70" s="3">
+        <v>75</v>
+      </c>
     </row>
     <row r="71" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B71" s="5">
         <v>43086</v>
       </c>
-      <c r="C71" s="3"/>
-      <c r="D71" s="3"/>
+      <c r="C71" s="3">
+        <v>64.3</v>
+      </c>
+      <c r="D71" s="3">
+        <v>75</v>
+      </c>
     </row>
     <row r="72" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B72" s="5">
         <v>43087</v>
       </c>
-      <c r="C72" s="3"/>
-      <c r="D72" s="3"/>
+      <c r="C72" s="3">
+        <v>64.3</v>
+      </c>
+      <c r="D72" s="3">
+        <v>75</v>
+      </c>
     </row>
     <row r="73" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B73" s="5">
         <v>43088</v>
       </c>
-      <c r="C73" s="3"/>
-      <c r="D73" s="3"/>
+      <c r="C73" s="3">
+        <v>65.599999999999994</v>
+      </c>
+      <c r="D73" s="3">
+        <v>75</v>
+      </c>
     </row>
     <row r="74" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B74" s="5">
         <v>43089</v>
       </c>
-      <c r="C74" s="3"/>
-      <c r="D74" s="3"/>
+      <c r="C74" s="3">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="D74" s="3">
+        <v>75</v>
+      </c>
     </row>
     <row r="75" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B75" s="5">
         <v>43090</v>
       </c>
-      <c r="C75" s="3"/>
-      <c r="D75" s="3"/>
+      <c r="C75" s="3">
+        <v>64</v>
+      </c>
+      <c r="D75" s="3">
+        <v>75</v>
+      </c>
     </row>
     <row r="76" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B76" s="5">
         <v>43091</v>
       </c>
-      <c r="C76" s="3"/>
-      <c r="D76" s="3"/>
+      <c r="C76" s="3">
+        <v>64.599999999999994</v>
+      </c>
+      <c r="D76" s="3">
+        <v>75</v>
+      </c>
     </row>
     <row r="77" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B77" s="5">
         <v>43092</v>
       </c>
-      <c r="C77" s="3"/>
-      <c r="D77" s="3"/>
+      <c r="C77" s="3">
+        <v>64.599999999999994</v>
+      </c>
+      <c r="D77" s="3">
+        <v>75</v>
+      </c>
     </row>
     <row r="78" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B78" s="5">
         <v>43093</v>
       </c>
-      <c r="C78" s="3"/>
-      <c r="D78" s="3"/>
+      <c r="C78" s="3">
+        <v>64.599999999999994</v>
+      </c>
+      <c r="D78" s="3">
+        <v>75</v>
+      </c>
     </row>
     <row r="79" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B79" s="5">
         <v>43094</v>
       </c>
-      <c r="C79" s="3"/>
-      <c r="D79" s="3"/>
+      <c r="C79" s="3">
+        <v>64.599999999999994</v>
+      </c>
+      <c r="D79" s="3">
+        <v>75</v>
+      </c>
     </row>
     <row r="80" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B80" s="5">
         <v>43095</v>
       </c>
-      <c r="C80" s="3"/>
-      <c r="D80" s="3"/>
+      <c r="C80" s="3">
+        <v>64.599999999999994</v>
+      </c>
+      <c r="D80" s="3">
+        <v>74</v>
+      </c>
     </row>
     <row r="81" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B81" s="5">
         <v>43096</v>
       </c>
-      <c r="C81" s="3"/>
-      <c r="D81" s="3"/>
+      <c r="C81" s="3">
+        <v>64</v>
+      </c>
+      <c r="D81" s="3">
+        <v>74</v>
+      </c>
     </row>
     <row r="82" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B82" s="5">
         <v>43097</v>
       </c>
-      <c r="C82" s="3"/>
-      <c r="D82" s="3"/>
+      <c r="C82" s="3">
+        <v>63.6</v>
+      </c>
+      <c r="D82" s="3">
+        <v>74</v>
+      </c>
     </row>
     <row r="83" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B83" s="5">
